--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner-UI\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83C2B9-3766-48CA-AB22-42DC81B25750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA75BA5-E179-4D86-8D77-3239B14B4732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="553">
   <si>
     <t>Page</t>
   </si>
@@ -2164,6 +2164,9 @@
   </si>
   <si>
     <t>All tests that use the train.TypeYourMessage() function.</t>
+  </si>
+  <si>
+    <t>Type user turn - Verify that either no entities are detected, or the ones that are detected are expected. (Bug 2396)</t>
   </si>
 </sst>
 </file>
@@ -2468,86 +2471,95 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$27</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>43819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2555,86 +2567,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$C$2:$C$27</c:f>
+              <c:f>'Weekly Progress'!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2671,86 +2692,95 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$27</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>43819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43798</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2758,86 +2788,95 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$D$2:$D$27</c:f>
+              <c:f>'Weekly Progress'!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3609,13 +3648,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3647,8 +3686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F311" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F311" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F312" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F312" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
     <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
@@ -3677,8 +3716,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D27" totalsRowShown="0">
-  <autoFilter ref="A1:D27" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D30" totalsRowShown="0">
+  <autoFilter ref="A1:D30" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6229C132-74E5-42FB-A81D-37498D4788E1}" name="Scenarios"/>
@@ -4081,11 +4120,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A291" sqref="A291:XFD291"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,16 +5282,16 @@
         <v>45</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>307</v>
+        <v>552</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>398</v>
+        <v>551</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5266,7 +5305,7 @@
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>398</v>
@@ -5283,7 +5322,7 @@
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>398</v>
@@ -5300,7 +5339,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>398</v>
@@ -5317,7 +5356,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>398</v>
@@ -5334,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>398</v>
@@ -5351,13 +5390,13 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -5368,7 +5407,7 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>403</v>
@@ -5385,13 +5424,13 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -5402,7 +5441,7 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>403</v>
@@ -5419,13 +5458,13 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -5436,13 +5475,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -5453,13 +5492,13 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -5470,13 +5509,13 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -5487,13 +5526,13 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -5504,10 +5543,10 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>412</v>
@@ -5538,13 +5577,13 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -5555,13 +5594,13 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -5572,13 +5611,13 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -5589,10 +5628,10 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5606,13 +5645,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -5623,10 +5662,10 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,10 +5679,10 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>465</v>
+        <v>312</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>476</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,7 +5696,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>476</v>
@@ -5674,13 +5713,13 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -5691,13 +5730,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5708,7 +5747,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>476</v>
@@ -5725,7 +5764,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>476</v>
@@ -5742,7 +5781,7 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>476</v>
@@ -5759,13 +5798,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -5776,7 +5815,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>476</v>
@@ -5793,7 +5832,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>476</v>
@@ -5810,13 +5849,13 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -5827,10 +5866,10 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5838,19 +5877,19 @@
         <v>45</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>422</v>
+        <v>533</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -5861,13 +5900,13 @@
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -5878,30 +5917,30 @@
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>45</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -5912,13 +5951,13 @@
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -5929,27 +5968,27 @@
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E107" s="3" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5963,7 +6002,7 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>231</v>
@@ -5980,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>231</v>
@@ -5997,7 +6036,7 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>231</v>
@@ -6014,13 +6053,13 @@
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>45</v>
       </c>
@@ -6031,13 +6070,13 @@
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -6048,10 +6087,10 @@
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,13 +6104,13 @@
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>435</v>
+        <v>232</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>45</v>
       </c>
@@ -6082,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>445</v>
@@ -6093,13 +6132,13 @@
         <v>45</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>445</v>
@@ -6116,13 +6155,13 @@
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -6133,7 +6172,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>445</v>
@@ -6150,13 +6189,13 @@
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -6167,13 +6206,13 @@
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -6184,13 +6223,13 @@
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -6201,30 +6240,30 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -6235,30 +6274,30 @@
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -6269,13 +6308,13 @@
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>455</v>
+        <v>376</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -6286,7 +6325,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>458</v>
@@ -6303,13 +6342,13 @@
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -6320,13 +6359,13 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -6337,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>458</v>
@@ -6354,7 +6393,7 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>458</v>
@@ -6371,27 +6410,27 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6405,13 +6444,13 @@
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>314</v>
+        <v>459</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -6422,13 +6461,13 @@
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -6439,7 +6478,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>460</v>
+        <v>313</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>461</v>
@@ -6456,24 +6495,24 @@
         <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>461</v>
@@ -6490,7 +6529,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>461</v>
@@ -6507,7 +6546,7 @@
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>461</v>
@@ -6524,7 +6563,7 @@
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>461</v>
@@ -6535,19 +6574,19 @@
         <v>45</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>38</v>
+        <v>464</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -6558,7 +6597,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>231</v>
@@ -6575,10 +6614,10 @@
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6592,13 +6631,13 @@
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -6609,13 +6648,13 @@
         <v>14</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -6626,13 +6665,13 @@
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -6643,7 +6682,7 @@
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>234</v>
@@ -6660,7 +6699,7 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>234</v>
@@ -6677,10 +6716,10 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6694,13 +6733,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -6711,7 +6750,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>231</v>
@@ -6728,16 +6767,13 @@
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -6748,30 +6784,33 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F154" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>45</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -6782,13 +6821,13 @@
         <v>14</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -6799,13 +6838,13 @@
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>45</v>
       </c>
@@ -6816,10 +6855,10 @@
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>526</v>
+        <v>226</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6833,13 +6872,13 @@
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>514</v>
+        <v>287</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -6850,13 +6889,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -6867,7 +6906,7 @@
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>526</v>
@@ -6884,13 +6923,13 @@
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -6901,13 +6940,13 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -6918,13 +6957,13 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -6932,27 +6971,27 @@
         <v>61</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>45</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>526</v>
@@ -6969,7 +7008,7 @@
         <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>526</v>
@@ -6985,45 +7024,45 @@
       <c r="C168" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>522</v>
+      <c r="D168" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>45</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>61</v>
+        <v>521</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>518</v>
+      <c r="D169" s="8" t="s">
+        <v>522</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>526</v>
       </c>
+      <c r="F169" s="3" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>519</v>
+        <v>61</v>
       </c>
       <c r="C170" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>526</v>
@@ -7034,16 +7073,16 @@
         <v>45</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>61</v>
+        <v>519</v>
       </c>
       <c r="C171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>286</v>
+        <v>527</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7057,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>505</v>
@@ -7074,13 +7113,13 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -7091,7 +7130,7 @@
         <v>14</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>505</v>
@@ -7108,13 +7147,13 @@
         <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -7125,13 +7164,13 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -7142,10 +7181,10 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7159,13 +7198,13 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -7176,13 +7215,13 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -7193,13 +7232,13 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -7210,13 +7249,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -7227,7 +7266,7 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>506</v>
@@ -7244,13 +7283,13 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -7261,13 +7300,13 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>45</v>
       </c>
@@ -7278,13 +7317,13 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>45</v>
       </c>
@@ -7295,13 +7334,13 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>45</v>
       </c>
@@ -7312,13 +7351,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>45</v>
       </c>
@@ -7329,16 +7368,13 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -7349,13 +7385,16 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F189" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>45</v>
       </c>
@@ -7366,13 +7405,13 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>45</v>
       </c>
@@ -7383,10 +7422,10 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7394,16 +7433,16 @@
         <v>45</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>68</v>
+        <v>438</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>261</v>
+        <v>440</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7417,7 +7456,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>261</v>
@@ -7434,7 +7473,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>261</v>
@@ -7448,10 +7487,10 @@
         <v>67</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>261</v>
@@ -7468,13 +7507,13 @@
         <v>14</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -7484,11 +7523,11 @@
       <c r="C197" t="s">
         <v>14</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>73</v>
+      <c r="D197" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7502,10 +7541,10 @@
         <v>14</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7519,7 +7558,7 @@
         <v>14</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>248</v>
@@ -7536,10 +7575,10 @@
         <v>14</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7553,10 +7592,10 @@
         <v>14</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7570,13 +7609,13 @@
         <v>14</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>45</v>
       </c>
@@ -7586,14 +7625,14 @@
       <c r="C203" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="3" t="s">
-        <v>79</v>
+      <c r="D203" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>45</v>
       </c>
@@ -7604,13 +7643,13 @@
         <v>14</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -7621,16 +7660,13 @@
         <v>14</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>45</v>
       </c>
@@ -7641,11 +7677,14 @@
         <v>14</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>485</v>
       </c>
+      <c r="F206" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -7658,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>485</v>
@@ -7675,7 +7714,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>485</v>
@@ -7692,13 +7731,13 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>45</v>
       </c>
@@ -7709,13 +7748,13 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>45</v>
       </c>
@@ -7726,44 +7765,41 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C212" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>45</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C212" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F212" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>45</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>528</v>
+        <v>299</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>281</v>
@@ -7772,7 +7808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>45</v>
       </c>
@@ -7783,7 +7819,7 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>281</v>
@@ -7792,7 +7828,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -7803,7 +7839,7 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>281</v>
@@ -7812,7 +7848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>45</v>
       </c>
@@ -7823,30 +7859,33 @@
         <v>14</v>
       </c>
       <c r="D216" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>45</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>45</v>
       </c>
@@ -7857,13 +7896,13 @@
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>45</v>
       </c>
@@ -7874,13 +7913,13 @@
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>45</v>
       </c>
@@ -7891,7 +7930,7 @@
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>233</v>
@@ -7908,13 +7947,13 @@
         <v>14</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>536</v>
+        <v>84</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>45</v>
       </c>
@@ -7925,13 +7964,13 @@
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>91</v>
+        <v>536</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>45</v>
       </c>
@@ -7942,13 +7981,13 @@
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>45</v>
       </c>
@@ -7959,13 +7998,13 @@
         <v>14</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>45</v>
       </c>
@@ -7976,10 +8015,10 @@
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7993,10 +8032,10 @@
         <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8010,13 +8049,13 @@
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>45</v>
       </c>
@@ -8027,16 +8066,13 @@
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -8047,27 +8083,30 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C230" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E230" s="3" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>45</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C230" t="s">
-        <v>14</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8075,19 +8114,19 @@
         <v>45</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>45</v>
       </c>
@@ -8098,30 +8137,30 @@
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>15</v>
+        <v>540</v>
       </c>
       <c r="C233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>89</v>
+        <v>541</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -8132,13 +8171,13 @@
         <v>15</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -8149,7 +8188,7 @@
         <v>15</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>388</v>
@@ -8160,19 +8199,19 @@
         <v>15</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
         <v>15</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -8183,13 +8222,13 @@
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -8200,10 +8239,10 @@
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>253</v>
+        <v>384</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8217,10 +8256,10 @@
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>549</v>
+        <v>253</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8228,19 +8267,19 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>15</v>
+        <v>383</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -8251,13 +8290,13 @@
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>302</v>
+        <v>548</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -8268,30 +8307,30 @@
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>382</v>
+        <v>302</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F242" s="3" t="s">
+    </row>
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F243" s="3" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>3</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C243" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8299,16 +8338,16 @@
         <v>3</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8316,33 +8355,33 @@
         <v>3</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -8350,13 +8389,13 @@
         <v>3</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>281</v>
@@ -8370,7 +8409,7 @@
         <v>4</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>23</v>
@@ -8384,13 +8423,13 @@
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>281</v>
@@ -8404,7 +8443,7 @@
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>24</v>
@@ -8413,18 +8452,18 @@
         <v>281</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>281</v>
@@ -8432,16 +8471,16 @@
     </row>
     <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>281</v>
@@ -8449,16 +8488,16 @@
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C253" t="s">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>281</v>
@@ -8475,41 +8514,41 @@
         <v>269</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C255" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>281</v>
@@ -8520,19 +8559,16 @@
         <v>45</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8546,11 +8582,14 @@
         <v>14</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="F258" s="3" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -8563,7 +8602,7 @@
         <v>14</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>350</v>
@@ -8580,7 +8619,7 @@
         <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>350</v>
@@ -8597,7 +8636,7 @@
         <v>14</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>350</v>
@@ -8614,7 +8653,7 @@
         <v>14</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>350</v>
@@ -8631,7 +8670,7 @@
         <v>14</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>350</v>
@@ -8648,7 +8687,7 @@
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>350</v>
@@ -8665,7 +8704,7 @@
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>350</v>
@@ -8682,7 +8721,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>350</v>
@@ -8699,13 +8738,13 @@
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>45</v>
       </c>
@@ -8716,13 +8755,13 @@
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>45</v>
       </c>
@@ -8733,13 +8772,10 @@
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8753,7 +8789,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>340</v>
@@ -8773,10 +8809,10 @@
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>318</v>
@@ -8793,7 +8829,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>341</v>
@@ -8813,10 +8849,10 @@
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>318</v>
@@ -8833,7 +8869,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>348</v>
@@ -8842,7 +8878,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>45</v>
       </c>
@@ -8853,10 +8889,10 @@
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>318</v>
@@ -8873,7 +8909,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>349</v>
@@ -8893,7 +8929,7 @@
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>349</v>
@@ -8913,7 +8949,7 @@
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>349</v>
@@ -8922,21 +8958,24 @@
         <v>318</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>45</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>361</v>
+        <v>349</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8950,7 +8989,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>361</v>
@@ -8967,7 +9006,7 @@
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>361</v>
@@ -8984,7 +9023,7 @@
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>361</v>
@@ -9001,13 +9040,13 @@
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>45</v>
       </c>
@@ -9018,14 +9057,11 @@
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F284" s="3" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
@@ -9038,7 +9074,7 @@
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>330</v>
@@ -9047,7 +9083,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>45</v>
       </c>
@@ -9058,7 +9094,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>330</v>
@@ -9078,7 +9114,7 @@
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>330</v>
@@ -9098,7 +9134,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>330</v>
@@ -9112,43 +9148,63 @@
         <v>45</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="3" t="s">
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E290" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F289" s="3" t="s">
+      <c r="F290" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>45</v>
-      </c>
-      <c r="B290" s="3" t="s">
+    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" s="3" t="s">
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E291" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F290" s="3" t="s">
+      <c r="F291" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D291" s="15"/>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D292" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9709,10 +9765,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9739,224 +9795,224 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>43791</v>
+        <v>43819</v>
       </c>
       <c r="B2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C24" si="0">SUM(B2,-D2)</f>
-        <v>254</v>
+        <f t="shared" ref="C2:C27" si="0">SUM(B2,-D2)</f>
+        <v>255</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>43784</v>
+        <v>43812</v>
       </c>
       <c r="B3">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>43777</v>
+        <v>43798</v>
       </c>
       <c r="B4">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>43770</v>
+        <v>43791</v>
       </c>
       <c r="B5">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>43763</v>
+        <v>43784</v>
       </c>
       <c r="B6">
         <v>284</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>43756</v>
+        <v>43777</v>
       </c>
       <c r="B7">
         <v>284</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>43749</v>
+        <v>43770</v>
       </c>
       <c r="B8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>43742</v>
+        <v>43763</v>
       </c>
       <c r="B9">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>43735</v>
+        <v>43756</v>
       </c>
       <c r="B10">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D10">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>43728</v>
+        <v>43749</v>
       </c>
       <c r="B11">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>43721</v>
+        <v>43742</v>
       </c>
       <c r="B12">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>43714</v>
+        <v>43735</v>
       </c>
       <c r="B13">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>43707</v>
+        <v>43728</v>
       </c>
       <c r="B14">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>43700</v>
+        <v>43721</v>
       </c>
       <c r="B15">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>43693</v>
+        <v>43714</v>
       </c>
       <c r="B16">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D16">
         <v>41</v>
@@ -9964,166 +10020,211 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>43665</v>
+        <v>43707</v>
       </c>
       <c r="B17">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>43658</v>
+        <v>43700</v>
       </c>
       <c r="B18">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>43651</v>
+        <v>43693</v>
       </c>
       <c r="B19">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43644</v>
+        <v>43665</v>
       </c>
       <c r="B20">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43638</v>
+        <v>43658</v>
       </c>
       <c r="B21">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D21">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>43630</v>
+        <v>43651</v>
       </c>
       <c r="B22">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D22">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>43623</v>
+        <v>43644</v>
       </c>
       <c r="B23">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D23">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43616</v>
+        <v>43638</v>
       </c>
       <c r="B24">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D24">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>43609</v>
+        <v>43630</v>
       </c>
       <c r="B25">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C25">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="D25">
-        <f>B25-C25</f>
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>43602</v>
+        <v>43623</v>
       </c>
       <c r="B26">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C26">
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="D26">
-        <f>B26-C26</f>
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
+        <v>43616</v>
+      </c>
+      <c r="B27">
+        <v>186</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>43609</v>
+      </c>
+      <c r="B28">
+        <v>185</v>
+      </c>
+      <c r="C28">
+        <v>83</v>
+      </c>
+      <c r="D28">
+        <f>B28-C28</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>43602</v>
+      </c>
+      <c r="B29">
+        <v>183</v>
+      </c>
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <f>B29-C29</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>43595</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <v>172</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>76</v>
       </c>
-      <c r="D27">
-        <f>B27-C27</f>
+      <c r="D30">
+        <f>B30-C30</f>
         <v>96</v>
       </c>
     </row>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner-UI\cypress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA75BA5-E179-4D86-8D77-3239B14B4732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5E28C-652E-4CDB-96ED-5F9DC8253AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -2471,95 +2471,98 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$30</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>43826</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2567,12 +2570,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$C$2:$C$30</c:f>
+              <c:f>'Weekly Progress'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>255</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>255</c:v>
@@ -2581,16 +2584,16 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>246</c:v>
@@ -2599,63 +2602,66 @@
                   <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2692,95 +2698,98 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$30</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>43826</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2788,10 +2797,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$D$2:$D$30</c:f>
+              <c:f>'Weekly Progress'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -2802,16 +2811,16 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>38</c:v>
@@ -2820,63 +2829,66 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3648,13 +3660,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3716,8 +3728,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D31" totalsRowShown="0">
+  <autoFilter ref="A1:D31" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6229C132-74E5-42FB-A81D-37498D4788E1}" name="Scenarios"/>
@@ -4123,7 +4135,7 @@
   <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
@@ -9765,9 +9777,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
@@ -9795,14 +9807,14 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="B2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C27" si="0">SUM(B2,-D2)</f>
-        <v>255</v>
+        <f t="shared" ref="C2:C28" si="0">SUM(B2,-D2)</f>
+        <v>256</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -9810,7 +9822,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="B3">
         <v>290</v>
@@ -9825,7 +9837,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>43798</v>
+        <v>43812</v>
       </c>
       <c r="B4">
         <v>290</v>
@@ -9840,67 +9852,67 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="B5">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="B6">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="B7">
         <v>284</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="B8">
         <v>284</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="B9">
         <v>284</v>
@@ -9915,7 +9927,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B10">
         <v>284</v>
@@ -9930,29 +9942,29 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="B11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="B12">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D12">
         <v>41</v>
@@ -9960,104 +9972,104 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="B13">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="B14">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="B15">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="B16">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="B17">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="B18">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="B19">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D19">
         <v>41</v>
@@ -10065,44 +10077,44 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43665</v>
+        <v>43693</v>
       </c>
       <c r="B20">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="B21">
         <v>199</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D21">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="B22">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D22">
         <v>54</v>
@@ -10110,121 +10122,136 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="B23">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43638</v>
+        <v>43644</v>
       </c>
       <c r="B24">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>43630</v>
+        <v>43638</v>
       </c>
       <c r="B25">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D25">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="B26">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D26">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="B27">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B28">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C28">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D28">
-        <f>B28-C28</f>
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="B29">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D29">
         <f>B29-C29</f>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="B30">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C30">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <f>B30-C30</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>43595</v>
+      </c>
+      <c r="B31">
+        <v>172</v>
+      </c>
+      <c r="C31">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <f>B31-C31</f>
         <v>96</v>
       </c>
     </row>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5E28C-652E-4CDB-96ED-5F9DC8253AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078995EB-276B-4567-919F-2A00553AAC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
     <sheet name="Areas Features Validations" sheetId="1" r:id="rId2"/>
-    <sheet name="Manual Validations" sheetId="6" r:id="rId3"/>
-    <sheet name="List of Test Specs" sheetId="2" r:id="rId4"/>
-    <sheet name="Weekly Progress" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Manual Validations" sheetId="6" r:id="rId4"/>
+    <sheet name="List of Test Specs" sheetId="2" r:id="rId5"/>
+    <sheet name="Weekly Progress" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="569">
   <si>
     <t>Page</t>
   </si>
@@ -696,12 +697,6 @@
     <t>NO data fields are directly verified. They are indirectly verified by using the model to train and perform other scenarios which would fail if the expected fields were not present.</t>
   </si>
   <si>
-    <t>CreateModels/EntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
-    <t>Train/DateTimeResolver, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>Train/DisqualifyingEntities</t>
   </si>
   <si>
@@ -720,18 +715,12 @@
     <t>Train/DateTimeResolver, Train/DisqualifyingEntities</t>
   </si>
   <si>
-    <t>Train/DisqualifyingEntities, Train/ExpectedEntityLabeling</t>
-  </si>
-  <si>
     <t>Train/WaitVsNoWaitActions</t>
   </si>
   <si>
     <t>Train/DateTimeResolver</t>
   </si>
   <si>
-    <t>Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>EditAndBranching/VerifyEditTrainingControlsAndLabels</t>
   </si>
   <si>
@@ -771,9 +760,6 @@
     <t>CreateModels/EntityLabeling</t>
   </si>
   <si>
-    <t>CreateModels/EntityLabeling, ErrorHandling/ActionUnavailable, Train/DateTimeResolver, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>User can label two words of a user utterance as two values for a single multi-valued entity</t>
   </si>
   <si>
@@ -808,9 +794,6 @@
   </si>
   <si>
     <t>A removed Entity shows in training memory as crossed out</t>
-  </si>
-  <si>
-    <t>CreateModels/EntityLabeling, Train/DateTimeResolver, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
   </si>
   <si>
     <t>Multi-Value, Negatable, Memory Panel</t>
@@ -1381,9 +1364,6 @@
     <t>Edit an existing Entity and verify that the "Required For Actions" tab is populated with only the correct actions confirm for SET_ENTITY actions (bug 2179) and all other Action Types</t>
   </si>
   <si>
-    <t>Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
     <t>Verify expected state of Entities when Action contains disqualifying entity that is NOT present.</t>
   </si>
   <si>
@@ -1396,9 +1376,6 @@
     <t>Verify MISSING ACTIONs change to SET_ENTITY Actions once used in TD</t>
   </si>
   <si>
-    <t>Train/Comprehensive1</t>
-  </si>
-  <si>
     <t>Verify MISSING ACTIONs show up imediately when an Enum is added from Score Action pane and no Action was created (bug 2243)</t>
   </si>
   <si>
@@ -1411,9 +1388,6 @@
     <t>Verify API Actions are represented correctly in the Score Action pane</t>
   </si>
   <si>
-    <t>Train/Comprehensive2</t>
-  </si>
-  <si>
     <t>Verify that as Entity qualifiers change in each chat turn, all of the Actions depending on those Entities are represented correctly in the Score Action pane</t>
   </si>
   <si>
@@ -1423,15 +1397,9 @@
     <t>Verify that APIs that set Entity memory affect the Score Action pane correctly</t>
   </si>
   <si>
-    <t>Train/Comprehensive3</t>
-  </si>
-  <si>
     <t>Verify CARD Actions are represented correctly in the Score Action pane</t>
   </si>
   <si>
-    <t>Train/Comprehensive4</t>
-  </si>
-  <si>
     <t>Verify that when using each and every enum value, that as each one is used it is changed from MISSING ACTIONs to SET_ENTITY in the Score Action pane</t>
   </si>
   <si>
@@ -1442,9 +1410,6 @@
   </si>
   <si>
     <t>After introducing errors in the Train Dialog by modifying Entity memory verify that all Actions are represented correctly in the Score Actions pane</t>
-  </si>
-  <si>
-    <t>Train/Comprehensive5</t>
   </si>
   <si>
     <t>Edit the only saved Train Dialog of a model - add one round of turns - them modify an Entity label on a unique user turn - verify that the Entity Conflict popup does not show up.</t>
@@ -1747,12 +1712,6 @@
     </r>
   </si>
   <si>
-    <t>Train/NewEntityLabelOnExistingPhrase2</t>
-  </si>
-  <si>
-    <t>Train/NewEntityLabelOnExistingPhrase3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -1845,9 +1804,6 @@
     </r>
   </si>
   <si>
-    <t>Train/NewEntityLabelOnExistingPhrase1</t>
-  </si>
-  <si>
     <t>EntityLabeling/NewPhraseUsed2xInconsistentlySameTD</t>
   </si>
   <si>
@@ -2042,12 +1998,6 @@
     <t>This scenario fits here because it is the only way (that I've found) to produce this situation.</t>
   </si>
   <si>
-    <t>CreateModels/EndSession, CreateModels/EntityLabeling, CreateModels/WaitVsNoWaitActions, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/MissingAction, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
-    <t>EditAndBranching/Branching, EditAndBranching/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
     <t>EntityLabeling/ConsistentEntityLabeling</t>
   </si>
   <si>
@@ -2167,6 +2117,105 @@
   </si>
   <si>
     <t>Type user turn - Verify that either no entities are detected, or the ones that are detected are expected. (Bug 2396)</t>
+  </si>
+  <si>
+    <t>CreateModels/EndSession, CreateModels/EntityLabeling, CreateModels/WaitVsNoWaitActions, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/MissingAction, EntityLabeling/ConsistentEntityLabeling,  EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities</t>
+  </si>
+  <si>
+    <t>Train/DateTimeResolver, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, Train/DateTimeResolver, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, ErrorHandling/ActionUnavailable, Train/DateTimeResolver, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive1</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive2</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive3</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive5</t>
+  </si>
+  <si>
+    <t>CreateModels/DateTimeResolver</t>
+  </si>
+  <si>
+    <t>CreateModels/DisqualifyingEntities</t>
+  </si>
+  <si>
+    <t>CreateModels/WhatsYourName</t>
+  </si>
+  <si>
+    <t>CreateModels/WaitVsNoWaitAction</t>
+  </si>
+  <si>
+    <t>Log/WhatsYourName</t>
+  </si>
+  <si>
+    <t>EntityLabeling/ExpectedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EndSession/AutoScoreEndSessionAction</t>
+  </si>
+  <si>
+    <t>Tools/LoopYourName</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2319Repro</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2379Repro</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>NewEntityLabelOnExistingPhrase1</t>
+  </si>
+  <si>
+    <t>NewEntityLabelOnExistingPhrase2</t>
+  </si>
+  <si>
+    <t>NewEntityLabelOnExistingPhrase3</t>
+  </si>
+  <si>
+    <t>OtherErrors</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase1</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase3</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase2</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>EditAndBranching/Branching, EntityLabeling/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
   </si>
 </sst>
 </file>
@@ -4054,42 +4103,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4097,31 +4146,31 @@
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4134,9 +4183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
   <dimension ref="A1:F292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4234,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,7 +4251,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,7 +4268,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,7 +4285,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,7 +4302,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4270,7 +4319,7 @@
         <v>205</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,7 +4336,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,7 +4353,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4321,7 +4370,7 @@
         <v>206</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,13 +4384,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4355,13 +4404,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,13 +4424,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4395,13 +4444,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4415,13 +4464,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,7 +4487,7 @@
         <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4455,7 +4504,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4469,10 +4518,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4489,7 +4538,7 @@
         <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4503,10 +4552,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4523,7 +4572,7 @@
         <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4537,10 +4586,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4554,10 +4603,10 @@
         <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4571,10 +4620,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4582,16 +4631,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4642,10 +4691,10 @@
         <v>185</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4662,10 +4711,10 @@
         <v>186</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,10 +4745,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4713,10 +4762,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4730,10 +4779,10 @@
         <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4750,7 +4799,7 @@
         <v>196</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4764,10 +4813,10 @@
         <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,10 +4830,10 @@
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4801,10 +4850,10 @@
         <v>197</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +4867,7 @@
         <v>209</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4835,7 +4884,7 @@
         <v>211</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4843,16 +4892,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4869,7 +4918,7 @@
         <v>216</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>217</v>
@@ -4889,10 +4938,10 @@
         <v>210</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4903,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>218</v>
@@ -4923,13 +4972,13 @@
         <v>17</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,7 +4995,7 @@
         <v>93</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4963,7 +5012,7 @@
         <v>178</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4980,7 +5029,7 @@
         <v>179</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4997,7 +5046,7 @@
         <v>182</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5014,7 +5063,7 @@
         <v>183</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5022,19 +5071,19 @@
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -5048,10 +5097,10 @@
         <v>86</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -5062,13 +5111,13 @@
         <v>27</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -5079,10 +5128,10 @@
         <v>27</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>220</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5096,10 +5145,10 @@
         <v>27</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5116,7 +5165,7 @@
         <v>98</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>227</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5133,7 +5182,7 @@
         <v>99</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5147,10 +5196,10 @@
         <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5167,10 +5216,10 @@
         <v>31</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -5184,10 +5233,10 @@
         <v>32</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -5201,7 +5250,7 @@
         <v>33</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>220</v>
+        <v>538</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5218,7 +5267,7 @@
         <v>96</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,7 +5284,7 @@
         <v>87</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>230</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,16 +5292,16 @@
         <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C63" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5260,16 +5309,16 @@
         <v>28</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="C64" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5283,10 +5332,10 @@
         <v>14</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5300,13 +5349,13 @@
         <v>14</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -5317,13 +5366,13 @@
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -5334,13 +5383,13 @@
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -5351,13 +5400,13 @@
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -5368,13 +5417,13 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -5385,13 +5434,13 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -5402,10 +5451,10 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>398</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5419,10 +5468,10 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,10 +5485,10 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5453,10 +5502,10 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5470,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5487,10 +5536,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5504,10 +5553,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5521,10 +5570,10 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5538,10 +5587,10 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>408</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5555,10 +5604,10 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>408</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,10 +5621,10 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>412</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,10 +5638,10 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>412</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,10 +5655,10 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5623,10 +5672,10 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,10 +5689,10 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5657,10 +5706,10 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>419</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5674,10 +5723,10 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>419</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5691,10 +5740,10 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5708,10 +5757,10 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5725,10 +5774,10 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5742,10 +5791,10 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5759,10 +5808,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5776,10 +5825,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5793,10 +5842,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,10 +5859,10 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,10 +5876,10 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5844,10 +5893,10 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,10 +5910,10 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,10 +5927,10 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5895,10 +5944,10 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5906,16 +5955,16 @@
         <v>45</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5923,16 +5972,16 @@
         <v>45</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5940,16 +5989,16 @@
         <v>45</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5957,16 +6006,16 @@
         <v>45</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,16 +6023,16 @@
         <v>45</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>408</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5991,16 +6040,16 @@
         <v>45</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -6017,7 +6066,7 @@
         <v>50</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -6034,7 +6083,7 @@
         <v>56</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6051,7 +6100,7 @@
         <v>58</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6068,7 +6117,7 @@
         <v>57</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -6085,10 +6134,10 @@
         <v>51</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -6102,7 +6151,7 @@
         <v>62</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>219</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6116,10 +6165,10 @@
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -6133,10 +6182,10 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6150,10 +6199,10 @@
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6161,16 +6210,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6178,16 +6227,16 @@
         <v>45</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6195,16 +6244,16 @@
         <v>45</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6212,16 +6261,16 @@
         <v>45</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6229,16 +6278,16 @@
         <v>45</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6246,16 +6295,16 @@
         <v>45</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6263,16 +6312,16 @@
         <v>45</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6280,16 +6329,16 @@
         <v>45</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6297,16 +6346,16 @@
         <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6320,10 +6369,10 @@
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6337,10 +6386,10 @@
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6354,10 +6403,10 @@
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6371,10 +6420,10 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -6388,10 +6437,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6405,10 +6454,10 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6422,10 +6471,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6439,10 +6488,10 @@
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6450,16 +6499,16 @@
         <v>45</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6467,16 +6516,16 @@
         <v>45</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -6484,16 +6533,16 @@
         <v>45</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6501,16 +6550,16 @@
         <v>45</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6518,16 +6567,16 @@
         <v>45</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6541,10 +6590,10 @@
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6558,10 +6607,10 @@
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6575,10 +6624,10 @@
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6592,10 +6641,10 @@
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6612,7 +6661,7 @@
         <v>38</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6629,7 +6678,7 @@
         <v>52</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6646,7 +6695,7 @@
         <v>42</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6663,7 +6712,7 @@
         <v>39</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -6680,7 +6729,7 @@
         <v>60</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6697,7 +6746,7 @@
         <v>44</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -6714,7 +6763,7 @@
         <v>43</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6731,7 +6780,7 @@
         <v>53</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -6748,7 +6797,7 @@
         <v>54</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6765,7 +6814,7 @@
         <v>40</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6782,7 +6831,7 @@
         <v>41</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6799,7 +6848,7 @@
         <v>46</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>49</v>
@@ -6819,7 +6868,7 @@
         <v>47</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6836,7 +6885,7 @@
         <v>63</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>244</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6850,10 +6899,10 @@
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6867,10 +6916,10 @@
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6884,10 +6933,10 @@
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6901,10 +6950,10 @@
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6918,10 +6967,10 @@
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6935,10 +6984,10 @@
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6952,10 +7001,10 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6969,10 +7018,10 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6986,10 +7035,10 @@
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7003,10 +7052,10 @@
         <v>12</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7014,16 +7063,16 @@
         <v>45</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7031,16 +7080,16 @@
         <v>45</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7048,19 +7097,19 @@
         <v>45</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7074,10 +7123,10 @@
         <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7085,16 +7134,16 @@
         <v>45</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7108,10 +7157,10 @@
         <v>14</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7125,10 +7174,10 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7142,10 +7191,10 @@
         <v>14</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7159,10 +7208,10 @@
         <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7176,10 +7225,10 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7193,10 +7242,10 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7210,10 +7259,10 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7227,10 +7276,10 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,10 +7293,10 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7261,10 +7310,10 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7278,10 +7327,10 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7295,10 +7344,10 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7312,10 +7361,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7329,10 +7378,10 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7346,10 +7395,10 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7363,10 +7412,10 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7380,10 +7429,10 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7397,13 +7446,13 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7417,10 +7466,10 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7434,10 +7483,10 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7451,10 +7500,10 @@
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7471,7 +7520,7 @@
         <v>68</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7488,7 +7537,7 @@
         <v>69</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7505,7 +7554,7 @@
         <v>70</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7522,7 +7571,7 @@
         <v>71</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7539,7 +7588,7 @@
         <v>72</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7556,7 +7605,7 @@
         <v>73</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7573,7 +7622,7 @@
         <v>74</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7590,7 +7639,7 @@
         <v>75</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7607,7 +7656,7 @@
         <v>76</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7624,7 +7673,7 @@
         <v>78</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7641,7 +7690,7 @@
         <v>77</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -7658,7 +7707,7 @@
         <v>79</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7675,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -7689,13 +7738,13 @@
         <v>14</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7709,10 +7758,10 @@
         <v>14</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7726,10 +7775,10 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7743,10 +7792,10 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7760,10 +7809,10 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7777,10 +7826,10 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -7794,10 +7843,10 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7805,19 +7854,19 @@
         <v>45</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7831,13 +7880,13 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7851,13 +7900,13 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7871,13 +7920,13 @@
         <v>14</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7891,10 +7940,10 @@
         <v>14</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7911,7 +7960,7 @@
         <v>83</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7925,10 +7974,10 @@
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -7945,7 +7994,7 @@
         <v>82</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7962,7 +8011,7 @@
         <v>84</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7976,10 +8025,10 @@
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7996,7 +8045,7 @@
         <v>91</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -8013,7 +8062,7 @@
         <v>92</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8030,7 +8079,7 @@
         <v>90</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8047,7 +8096,7 @@
         <v>85</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8061,10 +8110,10 @@
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8081,7 +8130,7 @@
         <v>95</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8095,13 +8144,13 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8118,7 +8167,7 @@
         <v>94</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8126,16 +8175,16 @@
         <v>45</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8143,16 +8192,16 @@
         <v>45</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8160,16 +8209,16 @@
         <v>45</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8186,7 +8235,7 @@
         <v>89</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -8203,7 +8252,7 @@
         <v>88</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8217,10 +8266,10 @@
         <v>15</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8228,16 +8277,16 @@
         <v>15</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8245,16 +8294,16 @@
         <v>15</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8262,16 +8311,16 @@
         <v>15</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8279,16 +8328,16 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8302,10 +8351,10 @@
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -8319,10 +8368,10 @@
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8336,21 +8385,21 @@
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -8359,7 +8408,7 @@
         <v>22</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>257</v>
+        <v>542</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8367,16 +8416,16 @@
         <v>3</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8384,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
@@ -8393,7 +8442,7 @@
         <v>64</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>230</v>
+        <v>543</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -8401,7 +8450,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -8410,7 +8459,7 @@
         <v>65</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -8427,7 +8476,7 @@
         <v>23</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -8444,7 +8493,7 @@
         <v>23</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -8461,7 +8510,7 @@
         <v>24</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -8478,7 +8527,7 @@
         <v>24</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8489,13 +8538,13 @@
         <v>66</v>
       </c>
       <c r="C252" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8503,67 +8552,67 @@
         <v>45</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C253" t="s">
         <v>14</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C254" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C255" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C256" t="s">
+        <v>269</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8571,16 +8620,16 @@
         <v>45</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8588,19 +8637,19 @@
         <v>45</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C258" t="s">
         <v>14</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8608,16 +8657,16 @@
         <v>45</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8625,16 +8674,16 @@
         <v>45</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8642,16 +8691,16 @@
         <v>45</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8659,16 +8708,16 @@
         <v>45</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8676,16 +8725,16 @@
         <v>45</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8693,16 +8742,16 @@
         <v>45</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8710,16 +8759,16 @@
         <v>45</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8727,16 +8776,16 @@
         <v>45</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8744,16 +8793,16 @@
         <v>45</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8761,16 +8810,16 @@
         <v>45</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8778,16 +8827,16 @@
         <v>45</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8795,19 +8844,19 @@
         <v>45</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8815,19 +8864,19 @@
         <v>45</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8835,19 +8884,19 @@
         <v>45</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8855,19 +8904,19 @@
         <v>45</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8875,19 +8924,19 @@
         <v>45</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E274" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="E274" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="F274" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8895,19 +8944,19 @@
         <v>45</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8915,19 +8964,19 @@
         <v>45</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8935,19 +8984,19 @@
         <v>45</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8955,19 +9004,19 @@
         <v>45</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8975,19 +9024,19 @@
         <v>45</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8995,16 +9044,16 @@
         <v>45</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9012,16 +9061,16 @@
         <v>45</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9029,16 +9078,16 @@
         <v>45</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9046,16 +9095,16 @@
         <v>45</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9063,16 +9112,16 @@
         <v>45</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9080,19 +9129,19 @@
         <v>45</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9100,19 +9149,19 @@
         <v>45</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9120,19 +9169,19 @@
         <v>45</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9140,19 +9189,19 @@
         <v>45</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9160,19 +9209,19 @@
         <v>45</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9180,19 +9229,19 @@
         <v>45</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -9206,13 +9255,13 @@
         <v>14</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -9229,6 +9278,354 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED22E8B3-B2C3-4EBC-BF6D-E912FED00D9B}">
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>556</v>
+      </c>
+      <c r="B58" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EFE73-8B28-4777-8911-7132E1D597B5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9271,13 +9668,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -9291,7 +9688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B719F-1470-4AFA-970E-2998AD817A19}">
   <dimension ref="A1:D47"/>
   <sheetViews>
@@ -9775,7 +10172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -9793,16 +10190,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078995EB-276B-4567-919F-2A00553AAC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5DA776-2E10-44B9-BF32-F11053890560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
     <sheet name="Areas Features Validations" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="Manual Validations" sheetId="6" r:id="rId4"/>
-    <sheet name="List of Test Specs" sheetId="2" r:id="rId5"/>
-    <sheet name="Weekly Progress" sheetId="5" r:id="rId6"/>
+    <sheet name="Manual Validations" sheetId="6" r:id="rId3"/>
+    <sheet name="List of Test Specs" sheetId="2" r:id="rId4"/>
+    <sheet name="Weekly Progress" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="561">
   <si>
     <t>Page</t>
   </si>
@@ -632,9 +631,6 @@
   </si>
   <si>
     <t>Verify that you can delete an Action that is not used by a Train Dialog by simply confirming that you want to delete it without a warning poping up.</t>
-  </si>
-  <si>
-    <t>Add Turn</t>
   </si>
   <si>
     <t>EntityLabeling</t>
@@ -1462,33 +1458,12 @@
     </r>
   </si>
   <si>
-    <t>Edit Turn, Undo</t>
-  </si>
-  <si>
-    <t>Edit Turn, Manual Undo</t>
-  </si>
-  <si>
-    <t>REMOVE LABEL - Edit a user turn - delete an entity label - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
     <t>RELABEL - Edit a user turn - delete an entity label - relable the same word with a different entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
   </si>
   <si>
-    <t>NEW LABEL - Edit a user turn that has no entity labeled - label a word as an Entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change  (do not use undo button) it back to its original state - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>Edit a user turn - verify "Submit Changes" and "Undo" button is disabled.</t>
-  </si>
-  <si>
     <t>Edit a user turn - select Entity label - edit a different user turn - verify that you can label a word as an Entity. (bug 2264)</t>
   </si>
   <si>
-    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change (do not use undo button) it back to its original state - verify that the "Submit Changes" and "Undo" buttons are disabled and that we can select another chat turn. (bug 2263)</t>
-  </si>
-  <si>
     <t>Create a new Train Dialog - Add two simple text user turns with Bot responses - DO NOT SAVE - Modify the 1st user turn by labeling one word as an entity - save changes - verify the changes are made to the 1st user turn and not to the 2nd one. (bug 2265)</t>
   </si>
   <si>
@@ -1507,24 +1482,12 @@
     <t>This list needs to be updated.</t>
   </si>
   <si>
-    <t>Edit a user turn - change entity label, verify "Submit Changes" and "Undo" buttons are enabled and that no other user turn can be selected.</t>
-  </si>
-  <si>
     <t>EditAndBranching/UndoEntityLabelChanges</t>
   </si>
   <si>
     <t>NEW ENTITY CANCEL - Select word to be labeled - Click +Entity button - cancel - verify that the word remains unlabeled.</t>
   </si>
   <si>
-    <t>NEW ENTITY - Select word to be labeled - Click +Entity button - Add a new Entity - verify that the word is labeled - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>MIXED LABEL CHANGES - Edit a user turn - label a currently unlabeled word as an Entity - delete two entity labels - relable one of the same words with a different entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - verify that "Undo" button comes up</t>
-  </si>
-  <si>
     <t>Type in a new user turn - verify cannot select another user turn</t>
   </si>
   <si>
@@ -1562,12 +1525,6 @@
   </si>
   <si>
     <t>Verify that the "Undo" (user turn) button is missing when editing a TD, no matter whether it ends with a User or Bot turn.</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - click "Undo" button - verify that the new turn is discarded.</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - click "Score Actions" button - verify "Undo" button goes away</t>
   </si>
   <si>
     <t>Verify togle control for Text Action flips between showing $entity name and Entity's value</t>
@@ -2158,51 +2115,12 @@
     <t>ScoreActions/Comprehensive5</t>
   </si>
   <si>
-    <t>CreateModels/DateTimeResolver</t>
-  </si>
-  <si>
-    <t>CreateModels/DisqualifyingEntities</t>
-  </si>
-  <si>
-    <t>CreateModels/WhatsYourName</t>
-  </si>
-  <si>
-    <t>CreateModels/WaitVsNoWaitAction</t>
-  </si>
-  <si>
-    <t>Log/WhatsYourName</t>
-  </si>
-  <si>
-    <t>EntityLabeling/ExpectedEntityLabeling</t>
-  </si>
-  <si>
-    <t>EndSession/AutoScoreEndSessionAction</t>
-  </si>
-  <si>
-    <t>Tools/LoopYourName</t>
-  </si>
-  <si>
     <t>BugRepro/Bug2319Repro</t>
   </si>
   <si>
     <t>BugRepro/Bug2379Repro</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>NewEntityLabelOnExistingPhrase1</t>
-  </si>
-  <si>
-    <t>NewEntityLabelOnExistingPhrase2</t>
-  </si>
-  <si>
-    <t>NewEntityLabelOnExistingPhrase3</t>
-  </si>
-  <si>
-    <t>OtherErrors</t>
-  </si>
-  <si>
     <t>EntityLabeling/NewEntityLabelOnExistingPhrase1</t>
   </si>
   <si>
@@ -2212,10 +2130,67 @@
     <t>EntityLabeling/NewEntityLabelOnExistingPhrase2</t>
   </si>
   <si>
-    <t>Smoke</t>
-  </si>
-  <si>
     <t>EditAndBranching/Branching, EntityLabeling/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - verify that "Undo" (user turn) button comes up</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - click "Undo" (user turn) button - verify that the new turn is discarded.</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - click "Score Actions" button - verify "Undo" (user turn) button goes away</t>
+  </si>
+  <si>
+    <t>Add Turn, Undo(user turn)</t>
+  </si>
+  <si>
+    <t>Edit Dialog, Undo(user turn)</t>
+  </si>
+  <si>
+    <t>Edit a user turn - verify "Submit Changes" and "Undo" (labeling) button is disabled.</t>
+  </si>
+  <si>
+    <t>Edit a user turn - change entity label, verify "Submit Changes" and "Undo"  (labeling) buttons are enabled and that no other user turn can be selected.</t>
+  </si>
+  <si>
+    <t>REMOVE LABEL - Edit a user turn - delete an entity label - click Undo  (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>Edit Turn, Undo (labeling)</t>
+  </si>
+  <si>
+    <t>Edit Turn, Manual Undo(labeling)</t>
+  </si>
+  <si>
+    <t>Edit Turn, Undo(labeling)</t>
+  </si>
+  <si>
+    <t>NEW LABEL - Edit a user turn that has no entity labeled - label a word as an Entity - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>MIXED LABEL CHANGES - Edit a user turn - label a currently unlabeled word as an Entity - delete two entity labels - relable one of the same words with a different entity - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
+  </si>
+  <si>
+    <t>NEW ENTITY - Select word to be labeled - Click +Entity button - Add a new Entity - verify that the word is labeled - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change (do not use Undo (labeling) button) it back to its original state - verify that the "Submit Changes" and "Undo" (labeling) buttons are disabled and that we can select another chat turn. (bug 2263)</t>
+  </si>
+  <si>
+    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change  (do not use Undo (labeling) button) it back to its original state - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>See "Bug 2319: Undo causes Score Actions to happen at the wrong time and errors out" in VSTS for details…too complex to describe here.</t>
+  </si>
+  <si>
+    <t>Edit Action, Reprompt</t>
+  </si>
+  <si>
+    <t>Edit an Action that has "Prompt on unexpected…" checked and a Required Condition - remove a Required Condition - Save - Verify that it saved without error (Bug 2379)</t>
+  </si>
+  <si>
+    <t>Edit an Action that has "Prompt on unexpected…" checked and a Disqualifying Condition - remove a Disqualifying Condition - Save - Verify that it saved without error (Bug 2379)</t>
   </si>
 </sst>
 </file>
@@ -3747,8 +3722,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F312" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F312" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F315" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F315" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
     <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
@@ -4103,42 +4078,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4146,31 +4121,31 @@
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4181,11 +4156,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4251,7 +4226,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,7 +4260,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4302,7 +4277,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4316,10 +4291,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,7 +4311,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,7 +4328,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,10 +4342,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,13 +4359,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4404,13 +4379,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4424,13 +4399,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4444,13 +4419,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4464,13 +4439,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,7 +4462,7 @@
         <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4504,7 +4479,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4518,10 +4493,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4538,7 +4513,7 @@
         <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4552,10 +4527,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4572,7 +4547,7 @@
         <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4586,10 +4561,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4603,10 +4578,10 @@
         <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4620,10 +4595,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4631,16 +4606,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C25" t="s">
-        <v>278</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4657,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4674,7 +4649,7 @@
         <v>184</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4691,10 +4666,10 @@
         <v>185</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4711,10 +4686,10 @@
         <v>186</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4731,7 +4706,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4745,10 +4720,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4762,10 +4737,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4779,27 +4754,27 @@
         <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>195</v>
+        <v>558</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>373</v>
+        <v>559</v>
+      </c>
+      <c r="E34" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4807,16 +4782,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>195</v>
+        <v>558</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>373</v>
+        <v>560</v>
+      </c>
+      <c r="E35" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4830,10 +4805,10 @@
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4847,27 +4822,27 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>536</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4875,33 +4850,33 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>482</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>483</v>
+        <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4909,19 +4884,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4929,90 +4901,93 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>215</v>
+        <v>468</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>210</v>
+        <v>469</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>385</v>
+        <v>215</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>568</v>
+        <v>379</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>386</v>
+        <v>209</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>93</v>
+        <v>384</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5020,16 +4995,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5037,84 +5012,84 @@
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5122,19 +5097,19 @@
         <v>28</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -5148,24 +5123,24 @@
         <v>220</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5173,16 +5148,16 @@
         <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5196,64 +5171,64 @@
         <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>223</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -5264,27 +5239,27 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,101 +5267,101 @@
         <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>528</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>528</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C65" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>534</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>302</v>
+        <v>521</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5400,10 +5375,10 @@
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5417,10 +5392,10 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5434,10 +5409,10 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5451,13 +5426,13 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -5468,13 +5443,13 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -5485,13 +5460,13 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -5502,13 +5477,13 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -5519,13 +5494,13 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -5536,13 +5511,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -5556,7 +5531,7 @@
         <v>395</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5570,10 +5545,10 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5587,10 +5562,10 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5604,10 +5579,10 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5621,13 +5596,13 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -5638,10 +5613,10 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5655,13 +5630,13 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -5672,10 +5647,10 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5689,10 +5664,10 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5706,13 +5681,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -5723,13 +5698,13 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -5740,13 +5715,13 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -5757,10 +5732,10 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5774,10 +5749,10 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>464</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5791,13 +5766,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5808,10 +5783,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5825,13 +5800,13 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -5842,10 +5817,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5859,10 +5834,10 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5876,13 +5851,13 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -5893,13 +5868,13 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -5910,10 +5885,10 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5927,13 +5902,13 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -5944,78 +5919,78 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="E105" s="3" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,16 +5998,16 @@
         <v>45</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6040,50 +6015,50 @@
         <v>45</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3" t="s">
+      <c r="E107" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E108" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>45</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>55</v>
+        <v>412</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>227</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6097,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6114,10 +6089,10 @@
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -6131,13 +6106,13 @@
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -6148,10 +6123,10 @@
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>540</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6165,13 +6140,13 @@
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>45</v>
       </c>
@@ -6182,13 +6157,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>423</v>
+        <v>62</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>45</v>
       </c>
@@ -6199,10 +6174,10 @@
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>433</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6210,16 +6185,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6227,109 +6202,109 @@
         <v>45</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="E118" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>421</v>
+        <v>548</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>45</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>434</v>
+        <v>552</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>418</v>
+        <v>551</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
@@ -6338,61 +6313,61 @@
         <v>425</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>418</v>
+        <v>549</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>422</v>
+        <v>554</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>370</v>
+        <v>555</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>443</v>
+        <v>556</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -6403,13 +6378,13 @@
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -6420,13 +6395,13 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -6437,13 +6412,13 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -6454,13 +6429,13 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -6471,10 +6446,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6488,120 +6463,120 @@
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>271</v>
+        <v>55</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>45</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="E137" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>450</v>
+        <v>306</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>45</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>198</v>
+        <v>545</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
@@ -6610,58 +6585,58 @@
         <v>438</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>45</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>198</v>
+        <v>544</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>451</v>
+        <v>541</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>198</v>
+        <v>544</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>37</v>
+        <v>544</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>38</v>
+        <v>542</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6669,16 +6644,16 @@
         <v>45</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>37</v>
+        <v>544</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>52</v>
+        <v>543</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6686,19 +6661,19 @@
         <v>45</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>37</v>
+        <v>544</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>42</v>
+        <v>557</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -6709,13 +6684,13 @@
         <v>14</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -6726,10 +6701,10 @@
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6743,13 +6718,13 @@
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -6760,10 +6735,10 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6777,13 +6752,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -6794,10 +6769,10 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6811,13 +6786,13 @@
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -6828,13 +6803,13 @@
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -6845,13 +6820,10 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6865,10 +6837,10 @@
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6876,53 +6848,56 @@
         <v>45</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>45</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>45</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -6933,13 +6908,13 @@
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -6950,13 +6925,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>499</v>
+        <v>239</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -6967,10 +6942,10 @@
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>477</v>
+        <v>240</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>509</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6984,10 +6959,10 @@
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7001,10 +6976,10 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7018,13 +6993,13 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -7035,13 +7010,13 @@
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -7049,118 +7024,118 @@
         <v>61</v>
       </c>
       <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>507</v>
+      <c r="D169" s="3" t="s">
+        <v>491</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>61</v>
+        <v>492</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>45</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>45</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>61</v>
+        <v>492</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>280</v>
+      <c r="D172" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>564</v>
+        <v>495</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7174,10 +7149,10 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7185,19 +7160,19 @@
         <v>45</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>61</v>
+        <v>490</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -7208,13 +7183,13 @@
         <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>490</v>
+        <v>279</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -7225,13 +7200,13 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -7242,13 +7217,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -7259,13 +7234,13 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -7276,13 +7251,13 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -7293,13 +7268,13 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -7310,13 +7285,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -7327,13 +7302,13 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -7344,13 +7319,13 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -7361,10 +7336,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7378,10 +7353,10 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7395,13 +7370,13 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>45</v>
       </c>
@@ -7412,13 +7387,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>45</v>
       </c>
@@ -7429,13 +7404,13 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -7446,16 +7421,13 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>45</v>
       </c>
@@ -7466,13 +7438,13 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>45</v>
       </c>
@@ -7483,13 +7455,13 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>45</v>
       </c>
@@ -7500,64 +7472,67 @@
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>45</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>68</v>
+        <v>484</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>45</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>69</v>
+        <v>407</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>45</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -7565,16 +7540,16 @@
         <v>67</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -7582,16 +7557,16 @@
         <v>67</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -7599,16 +7574,16 @@
         <v>67</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>45</v>
       </c>
@@ -7618,14 +7593,14 @@
       <c r="C199" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>74</v>
+      <c r="D199" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>45</v>
       </c>
@@ -7635,14 +7610,14 @@
       <c r="C200" t="s">
         <v>14</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>75</v>
+      <c r="D200" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>45</v>
       </c>
@@ -7653,13 +7628,13 @@
         <v>14</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>45</v>
       </c>
@@ -7670,13 +7645,13 @@
         <v>14</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>45</v>
       </c>
@@ -7687,13 +7662,13 @@
         <v>14</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>45</v>
       </c>
@@ -7703,14 +7678,14 @@
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>79</v>
+      <c r="D204" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -7720,14 +7695,14 @@
       <c r="C205" t="s">
         <v>14</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>80</v>
+      <c r="D205" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>45</v>
       </c>
@@ -7737,17 +7712,14 @@
       <c r="C206" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>465</v>
+      <c r="D206" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>45</v>
       </c>
@@ -7758,13 +7730,13 @@
         <v>14</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>45</v>
       </c>
@@ -7775,13 +7747,13 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>45</v>
       </c>
@@ -7792,10 +7764,13 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>473</v>
+        <v>459</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7809,13 +7784,13 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>45</v>
       </c>
@@ -7826,13 +7801,13 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>45</v>
       </c>
@@ -7843,10 +7818,10 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>275</v>
+        <v>459</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7854,19 +7829,16 @@
         <v>45</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>294</v>
+        <v>459</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7880,16 +7852,13 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -7900,36 +7869,33 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>45</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>513</v>
+        <v>292</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>45</v>
       </c>
@@ -7940,64 +7906,73 @@
         <v>14</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>45</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>45</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>246</v>
+        <v>499</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>45</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -8008,10 +7983,10 @@
         <v>14</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8025,13 +8000,13 @@
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>519</v>
+        <v>245</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>45</v>
       </c>
@@ -8042,13 +8017,13 @@
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>45</v>
       </c>
@@ -8059,13 +8034,13 @@
         <v>14</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>45</v>
       </c>
@@ -8076,13 +8051,13 @@
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>90</v>
+        <v>505</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>45</v>
       </c>
@@ -8093,13 +8068,13 @@
         <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>45</v>
       </c>
@@ -8110,13 +8085,13 @@
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>45</v>
       </c>
@@ -8127,13 +8102,13 @@
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -8144,13 +8119,10 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>518</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8164,27 +8136,27 @@
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>45</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>526</v>
+        <v>95</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>522</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8192,16 +8164,19 @@
         <v>45</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>521</v>
+        <v>312</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>522</v>
+        <v>503</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8209,101 +8184,101 @@
         <v>45</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>523</v>
+        <v>81</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>524</v>
+        <v>94</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>15</v>
+        <v>513</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>89</v>
+        <v>512</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>88</v>
+        <v>507</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>382</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8311,16 +8286,16 @@
         <v>15</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>377</v>
+        <v>15</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8328,50 +8303,50 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>532</v>
+        <v>378</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>15</v>
+        <v>376</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>531</v>
+        <v>377</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>15</v>
+        <v>376</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8379,121 +8354,121 @@
         <v>15</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>15</v>
+        <v>376</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>376</v>
+        <v>518</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>22</v>
+        <v>517</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>64</v>
+        <v>375</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>275</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -8501,16 +8476,16 @@
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -8518,155 +8493,152 @@
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>263</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="C255" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8674,16 +8646,16 @@
         <v>45</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8691,16 +8663,19 @@
         <v>45</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8708,16 +8683,16 @@
         <v>45</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8725,16 +8700,16 @@
         <v>45</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8742,16 +8717,16 @@
         <v>45</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8759,16 +8734,16 @@
         <v>45</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8776,16 +8751,16 @@
         <v>45</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8793,16 +8768,16 @@
         <v>45</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8810,33 +8785,33 @@
         <v>45</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>45</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8844,19 +8819,16 @@
         <v>45</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8864,39 +8836,33 @@
         <v>45</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>45</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8904,19 +8870,19 @@
         <v>45</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C273" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C273" t="s">
-        <v>14</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="E273" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8924,19 +8890,19 @@
         <v>45</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8944,79 +8910,79 @@
         <v>45</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>45</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>45</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>45</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -9024,22 +8990,22 @@
         <v>45</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>45</v>
       </c>
@@ -9050,13 +9016,16 @@
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>45</v>
       </c>
@@ -9067,13 +9036,16 @@
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>45</v>
       </c>
@@ -9084,10 +9056,13 @@
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>355</v>
+        <v>342</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9095,16 +9070,16 @@
         <v>45</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E283" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9112,116 +9087,107 @@
         <v>45</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>45</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>45</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E285" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>45</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C286" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>45</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C287" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>45</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>45</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>333</v>
-      </c>
       <c r="E289" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9229,43 +9195,103 @@
         <v>45</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>45</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" s="3" t="s">
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F294" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E291" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D292" s="15"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D295" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9278,354 +9304,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED22E8B3-B2C3-4EBC-BF6D-E912FED00D9B}">
-  <dimension ref="A1:B63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:A58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>245</v>
-      </c>
-      <c r="B45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>369</v>
-      </c>
-      <c r="B57" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>556</v>
-      </c>
-      <c r="B58" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85EFE73-8B28-4777-8911-7132E1D597B5}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9668,13 +9346,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -9688,7 +9366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B719F-1470-4AFA-970E-2998AD817A19}">
   <dimension ref="A1:D47"/>
   <sheetViews>
@@ -9712,7 +9390,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>109</v>
@@ -9768,7 +9446,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -9832,7 +9510,7 @@
         <v>126</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -9871,7 +9549,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -9955,7 +9633,7 @@
         <v>124</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10019,7 +9697,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
@@ -10050,7 +9728,7 @@
         <v>124</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10172,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -10190,16 +9868,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
         <v>325</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>326</v>
-      </c>
-      <c r="D1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5DA776-2E10-44B9-BF32-F11053890560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9596633-F830-417E-9BD8-D6401FE8805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -1291,9 +1291,6 @@
     <t>Verify that "Train Dialog" filter button navigates to Train Dialog pane and shows only the Train Dialogs in the list that use the selected Action.</t>
   </si>
   <si>
-    <t>Tools/EntityActionMissingUserTurn</t>
-  </si>
-  <si>
     <t>Start with a model with 2 Train Dialogs that could be merged - Edit Train Dialog with a single turn involving 1 Entity label and a Bot Response that renders that Entity - Add a simple text User turn - Score a simple Text Action - Delete the User turn that was just added - Save TD as is. (Bug 2191)</t>
   </si>
   <si>
@@ -2191,6 +2188,9 @@
   </si>
   <si>
     <t>Edit an Action that has "Prompt on unexpected…" checked and a Disqualifying Condition - remove a Disqualifying Condition - Save - Verify that it saved without error (Bug 2379)</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2191Repro</t>
   </si>
 </sst>
 </file>
@@ -4145,7 +4145,7 @@
         <v>256</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4159,8 +4159,8 @@
   <dimension ref="A1:F295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E237" sqref="E237"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,7 +4462,7 @@
         <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4493,10 +4493,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4513,7 +4513,7 @@
         <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
         <v>365</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
         <v>363</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
         <v>364</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>360</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>362</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4720,10 +4720,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4737,10 +4737,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4757,7 +4757,7 @@
         <v>367</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4765,16 +4765,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4782,16 +4782,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
         <v>196</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>366</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
         <v>197</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -4876,7 +4876,7 @@
         <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4901,16 +4901,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>215</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>216</v>
@@ -4947,7 +4947,7 @@
         <v>209</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,10 +4961,10 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>217</v>
@@ -4981,13 +4981,13 @@
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>93</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
         <v>178</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5038,7 +5038,7 @@
         <v>179</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>182</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>183</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5106,7 +5106,7 @@
         <v>86</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>220</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
         <v>221</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5174,7 +5174,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
         <v>32</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
         <v>33</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
         <v>87</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5301,13 +5301,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C65" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>274</v>
@@ -5318,13 +5318,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>274</v>
@@ -5341,10 +5341,10 @@
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>519</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5358,10 +5358,10 @@
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>300</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
         <v>301</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>302</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
         <v>303</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5446,7 +5446,7 @@
         <v>304</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
         <v>299</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5477,10 +5477,10 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5494,10 +5494,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5511,10 +5511,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5528,10 +5528,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5545,10 +5545,10 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5562,10 +5562,10 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5579,10 +5579,10 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5596,10 +5596,10 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5613,10 +5613,10 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5630,10 +5630,10 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5647,10 +5647,10 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5664,10 +5664,10 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5681,10 +5681,10 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5698,10 +5698,10 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5715,10 +5715,10 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5732,10 +5732,10 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5766,10 +5766,10 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5783,10 +5783,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5800,10 +5800,10 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,10 +5817,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5834,10 +5834,10 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5851,10 +5851,10 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -5885,10 +5885,10 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5902,10 +5902,10 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,10 +5919,10 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5936,10 +5936,10 @@
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5953,10 +5953,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5964,16 +5964,16 @@
         <v>45</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="E104" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5981,16 +5981,16 @@
         <v>45</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,16 +5998,16 @@
         <v>45</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6015,16 +6015,16 @@
         <v>45</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="E107" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,16 +6032,16 @@
         <v>45</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6049,16 +6049,16 @@
         <v>45</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
         <v>62</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,16 +6185,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6208,10 +6208,10 @@
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6219,16 +6219,16 @@
         <v>45</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6236,16 +6236,16 @@
         <v>45</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6253,16 +6253,16 @@
         <v>45</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6270,16 +6270,16 @@
         <v>45</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="E122" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6287,16 +6287,16 @@
         <v>45</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6304,16 +6304,16 @@
         <v>45</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6321,16 +6321,16 @@
         <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6338,16 +6338,16 @@
         <v>45</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6355,16 +6355,16 @@
         <v>45</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6378,10 +6378,10 @@
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>368</v>
+        <v>560</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6395,10 +6395,10 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,10 +6412,10 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6429,10 +6429,10 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -6446,10 +6446,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6463,10 +6463,10 @@
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6480,10 +6480,10 @@
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6497,10 +6497,10 @@
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6514,10 +6514,10 @@
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,7 +6534,7 @@
         <v>307</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
         <v>306</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6565,10 +6565,10 @@
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6576,16 +6576,16 @@
         <v>45</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6593,16 +6593,16 @@
         <v>45</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6610,16 +6610,16 @@
         <v>45</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6627,16 +6627,16 @@
         <v>45</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6644,16 +6644,16 @@
         <v>45</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6661,16 +6661,16 @@
         <v>45</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,7 +6911,7 @@
         <v>63</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,7 +6962,7 @@
         <v>280</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6976,10 +6976,10 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6993,10 +6993,10 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7010,10 +7010,10 @@
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7027,10 +7027,10 @@
         <v>14</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7044,10 +7044,10 @@
         <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7061,10 +7061,10 @@
         <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7078,10 +7078,10 @@
         <v>12</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7089,16 +7089,16 @@
         <v>45</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7106,16 +7106,16 @@
         <v>45</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,19 +7123,19 @@
         <v>45</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="C172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="8" t="s">
+      <c r="E172" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F172" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7149,10 +7149,10 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7160,16 +7160,16 @@
         <v>45</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7186,7 +7186,7 @@
         <v>279</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7200,10 +7200,10 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7217,10 +7217,10 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7234,10 +7234,10 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7251,10 +7251,10 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7268,10 +7268,10 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7285,10 +7285,10 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7302,10 +7302,10 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7319,10 +7319,10 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -7336,10 +7336,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7353,10 +7353,10 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7370,10 +7370,10 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7387,10 +7387,10 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7404,10 +7404,10 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7421,10 +7421,10 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7438,10 +7438,10 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7455,10 +7455,10 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7472,10 +7472,10 @@
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>297</v>
@@ -7492,10 +7492,10 @@
         <v>14</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -7509,10 +7509,10 @@
         <v>14</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7526,10 +7526,10 @@
         <v>14</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7764,10 +7764,10 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>293</v>
@@ -7784,10 +7784,10 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7801,10 +7801,10 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7818,10 +7818,10 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7835,10 +7835,10 @@
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7852,10 +7852,10 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E214" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7869,7 +7869,7 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>274</v>
@@ -7906,7 +7906,7 @@
         <v>14</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>274</v>
@@ -7926,7 +7926,7 @@
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>274</v>
@@ -7946,7 +7946,7 @@
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>274</v>
@@ -7966,10 +7966,10 @@
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E220" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8051,10 +8051,10 @@
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8173,10 +8173,10 @@
         <v>312</v>
       </c>
       <c r="E232" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8201,16 +8201,16 @@
         <v>45</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8218,16 +8218,16 @@
         <v>45</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E235" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8235,16 +8235,16 @@
         <v>45</v>
       </c>
       <c r="B236" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C236" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C236" t="s">
-        <v>14</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="E236" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8261,7 +8261,7 @@
         <v>89</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -8278,7 +8278,7 @@
         <v>88</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8292,10 +8292,10 @@
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8303,16 +8303,16 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8320,16 +8320,16 @@
         <v>15</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8337,7 +8337,7 @@
         <v>15</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
@@ -8346,7 +8346,7 @@
         <v>247</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8354,16 +8354,16 @@
         <v>15</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8377,10 +8377,10 @@
         <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
         <v>295</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8411,10 +8411,10 @@
         <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>296</v>
@@ -8434,7 +8434,7 @@
         <v>22</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8468,7 +8468,7 @@
         <v>64</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -9281,13 +9281,13 @@
         <v>14</v>
       </c>
       <c r="D294" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F294" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5E28C-652E-4CDB-96ED-5F9DC8253AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9596633-F830-417E-9BD8-D6401FE8805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="561">
   <si>
     <t>Page</t>
   </si>
@@ -633,9 +633,6 @@
     <t>Verify that you can delete an Action that is not used by a Train Dialog by simply confirming that you want to delete it without a warning poping up.</t>
   </si>
   <si>
-    <t>Add Turn</t>
-  </si>
-  <si>
     <t>EntityLabeling</t>
   </si>
   <si>
@@ -696,12 +693,6 @@
     <t>NO data fields are directly verified. They are indirectly verified by using the model to train and perform other scenarios which would fail if the expected fields were not present.</t>
   </si>
   <si>
-    <t>CreateModels/EntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
-    <t>Train/DateTimeResolver, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>Train/DisqualifyingEntities</t>
   </si>
   <si>
@@ -720,18 +711,12 @@
     <t>Train/DateTimeResolver, Train/DisqualifyingEntities</t>
   </si>
   <si>
-    <t>Train/DisqualifyingEntities, Train/ExpectedEntityLabeling</t>
-  </si>
-  <si>
     <t>Train/WaitVsNoWaitActions</t>
   </si>
   <si>
     <t>Train/DateTimeResolver</t>
   </si>
   <si>
-    <t>Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>EditAndBranching/VerifyEditTrainingControlsAndLabels</t>
   </si>
   <si>
@@ -771,9 +756,6 @@
     <t>CreateModels/EntityLabeling</t>
   </si>
   <si>
-    <t>CreateModels/EntityLabeling, ErrorHandling/ActionUnavailable, Train/DateTimeResolver, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>User can label two words of a user utterance as two values for a single multi-valued entity</t>
   </si>
   <si>
@@ -808,9 +790,6 @@
   </si>
   <si>
     <t>A removed Entity shows in training memory as crossed out</t>
-  </si>
-  <si>
-    <t>CreateModels/EntityLabeling, Train/DateTimeResolver, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
   </si>
   <si>
     <t>Multi-Value, Negatable, Memory Panel</t>
@@ -1312,9 +1291,6 @@
     <t>Verify that "Train Dialog" filter button navigates to Train Dialog pane and shows only the Train Dialogs in the list that use the selected Action.</t>
   </si>
   <si>
-    <t>Tools/EntityActionMissingUserTurn</t>
-  </si>
-  <si>
     <t>Start with a model with 2 Train Dialogs that could be merged - Edit Train Dialog with a single turn involving 1 Entity label and a Bot Response that renders that Entity - Add a simple text User turn - Score a simple Text Action - Delete the User turn that was just added - Save TD as is. (Bug 2191)</t>
   </si>
   <si>
@@ -1381,9 +1357,6 @@
     <t>Edit an existing Entity and verify that the "Required For Actions" tab is populated with only the correct actions confirm for SET_ENTITY actions (bug 2179) and all other Action Types</t>
   </si>
   <si>
-    <t>Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
     <t>Verify expected state of Entities when Action contains disqualifying entity that is NOT present.</t>
   </si>
   <si>
@@ -1396,9 +1369,6 @@
     <t>Verify MISSING ACTIONs change to SET_ENTITY Actions once used in TD</t>
   </si>
   <si>
-    <t>Train/Comprehensive1</t>
-  </si>
-  <si>
     <t>Verify MISSING ACTIONs show up imediately when an Enum is added from Score Action pane and no Action was created (bug 2243)</t>
   </si>
   <si>
@@ -1411,9 +1381,6 @@
     <t>Verify API Actions are represented correctly in the Score Action pane</t>
   </si>
   <si>
-    <t>Train/Comprehensive2</t>
-  </si>
-  <si>
     <t>Verify that as Entity qualifiers change in each chat turn, all of the Actions depending on those Entities are represented correctly in the Score Action pane</t>
   </si>
   <si>
@@ -1423,15 +1390,9 @@
     <t>Verify that APIs that set Entity memory affect the Score Action pane correctly</t>
   </si>
   <si>
-    <t>Train/Comprehensive3</t>
-  </si>
-  <si>
     <t>Verify CARD Actions are represented correctly in the Score Action pane</t>
   </si>
   <si>
-    <t>Train/Comprehensive4</t>
-  </si>
-  <si>
     <t>Verify that when using each and every enum value, that as each one is used it is changed from MISSING ACTIONs to SET_ENTITY in the Score Action pane</t>
   </si>
   <si>
@@ -1442,9 +1403,6 @@
   </si>
   <si>
     <t>After introducing errors in the Train Dialog by modifying Entity memory verify that all Actions are represented correctly in the Score Actions pane</t>
-  </si>
-  <si>
-    <t>Train/Comprehensive5</t>
   </si>
   <si>
     <t>Edit the only saved Train Dialog of a model - add one round of turns - them modify an Entity label on a unique user turn - verify that the Entity Conflict popup does not show up.</t>
@@ -1497,33 +1455,12 @@
     </r>
   </si>
   <si>
-    <t>Edit Turn, Undo</t>
-  </si>
-  <si>
-    <t>Edit Turn, Manual Undo</t>
-  </si>
-  <si>
-    <t>REMOVE LABEL - Edit a user turn - delete an entity label - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
     <t>RELABEL - Edit a user turn - delete an entity label - relable the same word with a different entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
   </si>
   <si>
-    <t>NEW LABEL - Edit a user turn that has no entity labeled - label a word as an Entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change  (do not use undo button) it back to its original state - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>Edit a user turn - verify "Submit Changes" and "Undo" button is disabled.</t>
-  </si>
-  <si>
     <t>Edit a user turn - select Entity label - edit a different user turn - verify that you can label a word as an Entity. (bug 2264)</t>
   </si>
   <si>
-    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change (do not use undo button) it back to its original state - verify that the "Submit Changes" and "Undo" buttons are disabled and that we can select another chat turn. (bug 2263)</t>
-  </si>
-  <si>
     <t>Create a new Train Dialog - Add two simple text user turns with Bot responses - DO NOT SAVE - Modify the 1st user turn by labeling one word as an entity - save changes - verify the changes are made to the 1st user turn and not to the 2nd one. (bug 2265)</t>
   </si>
   <si>
@@ -1542,24 +1479,12 @@
     <t>This list needs to be updated.</t>
   </si>
   <si>
-    <t>Edit a user turn - change entity label, verify "Submit Changes" and "Undo" buttons are enabled and that no other user turn can be selected.</t>
-  </si>
-  <si>
     <t>EditAndBranching/UndoEntityLabelChanges</t>
   </si>
   <si>
     <t>NEW ENTITY CANCEL - Select word to be labeled - Click +Entity button - cancel - verify that the word remains unlabeled.</t>
   </si>
   <si>
-    <t>NEW ENTITY - Select word to be labeled - Click +Entity button - Add a new Entity - verify that the word is labeled - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>MIXED LABEL CHANGES - Edit a user turn - label a currently unlabeled word as an Entity - delete two entity labels - relable one of the same words with a different entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - verify that "Undo" button comes up</t>
-  </si>
-  <si>
     <t>Type in a new user turn - verify cannot select another user turn</t>
   </si>
   <si>
@@ -1597,12 +1522,6 @@
   </si>
   <si>
     <t>Verify that the "Undo" (user turn) button is missing when editing a TD, no matter whether it ends with a User or Bot turn.</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - click "Undo" button - verify that the new turn is discarded.</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - click "Score Actions" button - verify "Undo" button goes away</t>
   </si>
   <si>
     <t>Verify togle control for Text Action flips between showing $entity name and Entity's value</t>
@@ -1747,12 +1666,6 @@
     </r>
   </si>
   <si>
-    <t>Train/NewEntityLabelOnExistingPhrase2</t>
-  </si>
-  <si>
-    <t>Train/NewEntityLabelOnExistingPhrase3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -1845,9 +1758,6 @@
     </r>
   </si>
   <si>
-    <t>Train/NewEntityLabelOnExistingPhrase1</t>
-  </si>
-  <si>
     <t>EntityLabeling/NewPhraseUsed2xInconsistentlySameTD</t>
   </si>
   <si>
@@ -2042,12 +1952,6 @@
     <t>This scenario fits here because it is the only way (that I've found) to produce this situation.</t>
   </si>
   <si>
-    <t>CreateModels/EndSession, CreateModels/EntityLabeling, CreateModels/WaitVsNoWaitActions, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/MissingAction, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
-    <t>EditAndBranching/Branching, EditAndBranching/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
     <t>EntityLabeling/ConsistentEntityLabeling</t>
   </si>
   <si>
@@ -2167,6 +2071,126 @@
   </si>
   <si>
     <t>Type user turn - Verify that either no entities are detected, or the ones that are detected are expected. (Bug 2396)</t>
+  </si>
+  <si>
+    <t>CreateModels/EndSession, CreateModels/EntityLabeling, CreateModels/WaitVsNoWaitActions, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/MissingAction, EntityLabeling/ConsistentEntityLabeling,  EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities</t>
+  </si>
+  <si>
+    <t>Train/DateTimeResolver, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, Train/DateTimeResolver, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, ErrorHandling/ActionUnavailable, Train/DateTimeResolver, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive1</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive2</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive3</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive5</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2319Repro</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2379Repro</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase1</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase3</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase2</t>
+  </si>
+  <si>
+    <t>EditAndBranching/Branching, EntityLabeling/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - verify that "Undo" (user turn) button comes up</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - click "Undo" (user turn) button - verify that the new turn is discarded.</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - click "Score Actions" button - verify "Undo" (user turn) button goes away</t>
+  </si>
+  <si>
+    <t>Add Turn, Undo(user turn)</t>
+  </si>
+  <si>
+    <t>Edit Dialog, Undo(user turn)</t>
+  </si>
+  <si>
+    <t>Edit a user turn - verify "Submit Changes" and "Undo" (labeling) button is disabled.</t>
+  </si>
+  <si>
+    <t>Edit a user turn - change entity label, verify "Submit Changes" and "Undo"  (labeling) buttons are enabled and that no other user turn can be selected.</t>
+  </si>
+  <si>
+    <t>REMOVE LABEL - Edit a user turn - delete an entity label - click Undo  (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>Edit Turn, Undo (labeling)</t>
+  </si>
+  <si>
+    <t>Edit Turn, Manual Undo(labeling)</t>
+  </si>
+  <si>
+    <t>Edit Turn, Undo(labeling)</t>
+  </si>
+  <si>
+    <t>NEW LABEL - Edit a user turn that has no entity labeled - label a word as an Entity - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>MIXED LABEL CHANGES - Edit a user turn - label a currently unlabeled word as an Entity - delete two entity labels - relable one of the same words with a different entity - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
+  </si>
+  <si>
+    <t>NEW ENTITY - Select word to be labeled - Click +Entity button - Add a new Entity - verify that the word is labeled - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change (do not use Undo (labeling) button) it back to its original state - verify that the "Submit Changes" and "Undo" (labeling) buttons are disabled and that we can select another chat turn. (bug 2263)</t>
+  </si>
+  <si>
+    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change  (do not use Undo (labeling) button) it back to its original state - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>See "Bug 2319: Undo causes Score Actions to happen at the wrong time and errors out" in VSTS for details…too complex to describe here.</t>
+  </si>
+  <si>
+    <t>Edit Action, Reprompt</t>
+  </si>
+  <si>
+    <t>Edit an Action that has "Prompt on unexpected…" checked and a Required Condition - remove a Required Condition - Save - Verify that it saved without error (Bug 2379)</t>
+  </si>
+  <si>
+    <t>Edit an Action that has "Prompt on unexpected…" checked and a Disqualifying Condition - remove a Disqualifying Condition - Save - Verify that it saved without error (Bug 2379)</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2191Repro</t>
   </si>
 </sst>
 </file>
@@ -3698,8 +3722,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F312" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F312" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F315" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F315" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
     <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
@@ -4054,42 +4078,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4097,31 +4121,31 @@
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4132,11 +4156,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,7 +4226,7 @@
         <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4219,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,7 +4260,7 @@
         <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4253,7 +4277,7 @@
         <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4267,10 +4291,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,7 +4311,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,7 +4328,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4318,10 +4342,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,13 +4359,13 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4355,13 +4379,13 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,13 +4399,13 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4395,13 +4419,13 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4415,13 +4439,13 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,7 +4462,7 @@
         <v>190</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4455,7 +4479,7 @@
         <v>191</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4469,10 +4493,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4489,7 +4513,7 @@
         <v>192</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4503,10 +4527,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4523,7 +4547,7 @@
         <v>194</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4537,10 +4561,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4554,10 +4578,10 @@
         <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4571,10 +4595,10 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4582,16 +4606,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4608,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4625,7 +4649,7 @@
         <v>184</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4642,10 +4666,10 @@
         <v>185</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4662,10 +4686,10 @@
         <v>186</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4682,7 +4706,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4696,10 +4720,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4713,10 +4737,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4730,27 +4754,27 @@
         <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>195</v>
+        <v>557</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>379</v>
+        <v>558</v>
+      </c>
+      <c r="E34" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4758,16 +4782,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>195</v>
+        <v>557</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>379</v>
+        <v>559</v>
+      </c>
+      <c r="E35" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,10 +4805,10 @@
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>378</v>
+        <v>196</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4798,27 +4822,27 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>209</v>
+        <v>370</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>524</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4826,33 +4850,33 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>494</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>495</v>
+        <v>208</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4860,19 +4884,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4880,90 +4901,93 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>210</v>
+        <v>468</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>391</v>
+        <v>215</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>525</v>
+        <v>378</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>392</v>
+        <v>209</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4971,16 +4995,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4988,104 +5012,104 @@
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>219</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -5096,27 +5120,27 @@
         <v>27</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>227</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5124,16 +5148,16 @@
         <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5147,27 +5171,27 @@
         <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5175,36 +5199,36 @@
         <v>28</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -5215,27 +5239,27 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>230</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,84 +5267,84 @@
         <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>545</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>546</v>
+        <v>96</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>545</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C65" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>551</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>307</v>
+        <v>518</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5328,19 +5352,19 @@
         <v>45</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>308</v>
+        <v>520</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -5351,13 +5375,13 @@
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -5368,13 +5392,13 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -5385,13 +5409,13 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -5402,13 +5426,13 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -5419,13 +5443,13 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>399</v>
+        <v>304</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -5436,13 +5460,13 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -5453,13 +5477,13 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -5470,13 +5494,13 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -5487,13 +5511,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -5504,10 +5528,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>403</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5521,10 +5545,10 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>403</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5538,10 +5562,10 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5555,10 +5579,10 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,13 +5596,13 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -5589,10 +5613,10 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>412</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,13 +5630,13 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -5623,10 +5647,10 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5640,10 +5664,10 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>414</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5657,13 +5681,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -5674,13 +5698,13 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -5691,13 +5715,13 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -5708,10 +5732,10 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5725,10 +5749,10 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>476</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5742,13 +5766,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5759,10 +5783,10 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5776,13 +5800,13 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -5793,10 +5817,10 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,10 +5834,10 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,13 +5851,13 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -5844,13 +5868,13 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -5861,10 +5885,10 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,13 +5902,13 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -5895,78 +5919,78 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>533</v>
+        <v>447</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>45</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>45</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>403</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,16 +5998,16 @@
         <v>45</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>408</v>
+        <v>530</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5991,50 +6015,50 @@
         <v>45</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>45</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>50</v>
+        <v>414</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>45</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>55</v>
+        <v>411</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>231</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -6048,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,10 +6089,10 @@
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -6082,13 +6106,13 @@
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -6099,10 +6123,10 @@
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -6116,13 +6140,13 @@
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>45</v>
       </c>
@@ -6133,13 +6157,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>435</v>
+        <v>62</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>45</v>
       </c>
@@ -6150,10 +6174,10 @@
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>436</v>
+        <v>227</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>445</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6161,16 +6185,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>444</v>
+        <v>545</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6178,172 +6202,172 @@
         <v>45</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>433</v>
+        <v>547</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>45</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>446</v>
+        <v>551</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>430</v>
+        <v>548</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>55</v>
+        <v>549</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>376</v>
+        <v>554</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>55</v>
+        <v>549</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>455</v>
+        <v>555</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -6354,13 +6378,13 @@
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -6371,13 +6395,13 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -6388,13 +6412,13 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -6405,13 +6429,13 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -6422,10 +6446,10 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6439,180 +6463,180 @@
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>314</v>
+        <v>427</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>45</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>460</v>
+        <v>307</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>462</v>
+        <v>306</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>45</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>198</v>
+        <v>544</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>45</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>198</v>
+        <v>543</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>463</v>
+        <v>540</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>198</v>
+        <v>543</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>37</v>
+        <v>543</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>38</v>
+        <v>541</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>231</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6620,16 +6644,16 @@
         <v>45</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>37</v>
+        <v>543</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>52</v>
+        <v>542</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>231</v>
+        <v>436</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6637,19 +6661,19 @@
         <v>45</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>37</v>
+        <v>543</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>42</v>
+        <v>556</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -6660,13 +6684,13 @@
         <v>14</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -6677,10 +6701,10 @@
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6694,13 +6718,13 @@
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -6711,10 +6735,10 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -6728,13 +6752,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -6745,10 +6769,10 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -6762,13 +6786,13 @@
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -6779,13 +6803,13 @@
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -6796,13 +6820,10 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6816,10 +6837,10 @@
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6827,53 +6848,56 @@
         <v>45</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>45</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>45</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -6884,13 +6908,13 @@
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -6901,13 +6925,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>514</v>
+        <v>239</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -6918,10 +6942,10 @@
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>489</v>
+        <v>240</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>526</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6935,10 +6959,10 @@
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>488</v>
+        <v>280</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -6952,10 +6976,10 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6969,13 +6993,13 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>45</v>
       </c>
@@ -6986,13 +7010,13 @@
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>515</v>
+        <v>461</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>45</v>
       </c>
@@ -7000,118 +7024,118 @@
         <v>61</v>
       </c>
       <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C169" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>522</v>
+      <c r="D169" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>61</v>
+        <v>491</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>45</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="C171" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>45</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>61</v>
+        <v>491</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>286</v>
+      <c r="D172" s="8" t="s">
+        <v>492</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>505</v>
+        <v>494</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7125,10 +7149,10 @@
         <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7136,19 +7160,19 @@
         <v>45</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>61</v>
+        <v>489</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -7159,13 +7183,13 @@
         <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>45</v>
       </c>
@@ -7176,13 +7200,13 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>45</v>
       </c>
@@ -7193,13 +7217,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>45</v>
       </c>
@@ -7210,13 +7234,13 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>45</v>
       </c>
@@ -7227,13 +7251,13 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -7244,13 +7268,13 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -7261,13 +7285,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -7278,13 +7302,13 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>45</v>
       </c>
@@ -7295,13 +7319,13 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>45</v>
       </c>
@@ -7312,10 +7336,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7329,10 +7353,10 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7346,13 +7370,13 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>45</v>
       </c>
@@ -7363,13 +7387,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>45</v>
       </c>
@@ -7380,13 +7404,13 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>45</v>
       </c>
@@ -7397,16 +7421,13 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>45</v>
       </c>
@@ -7417,13 +7438,13 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>45</v>
       </c>
@@ -7434,13 +7455,13 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>45</v>
       </c>
@@ -7451,64 +7472,67 @@
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>45</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>68</v>
+        <v>483</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>45</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C194" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>69</v>
+        <v>406</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>45</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C195" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>70</v>
+        <v>417</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>45</v>
       </c>
@@ -7516,16 +7540,16 @@
         <v>67</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -7533,16 +7557,16 @@
         <v>67</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>45</v>
       </c>
@@ -7550,16 +7574,16 @@
         <v>67</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>73</v>
+        <v>12</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>45</v>
       </c>
@@ -7569,14 +7593,14 @@
       <c r="C199" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>74</v>
+      <c r="D199" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>45</v>
       </c>
@@ -7586,14 +7610,14 @@
       <c r="C200" t="s">
         <v>14</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>75</v>
+      <c r="D200" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>45</v>
       </c>
@@ -7604,13 +7628,13 @@
         <v>14</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>45</v>
       </c>
@@ -7621,13 +7645,13 @@
         <v>14</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>45</v>
       </c>
@@ -7638,13 +7662,13 @@
         <v>14</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>45</v>
       </c>
@@ -7654,14 +7678,14 @@
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="3" t="s">
-        <v>79</v>
+      <c r="D204" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>45</v>
       </c>
@@ -7671,14 +7695,14 @@
       <c r="C205" t="s">
         <v>14</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>80</v>
+      <c r="D205" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>45</v>
       </c>
@@ -7688,17 +7712,14 @@
       <c r="C206" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>477</v>
+      <c r="D206" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>45</v>
       </c>
@@ -7709,13 +7730,13 @@
         <v>14</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>45</v>
       </c>
@@ -7726,13 +7747,13 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>45</v>
       </c>
@@ -7743,10 +7764,13 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>485</v>
+        <v>458</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7760,13 +7784,13 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>45</v>
       </c>
@@ -7777,13 +7801,13 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>45</v>
       </c>
@@ -7794,10 +7818,10 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>281</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7805,19 +7829,16 @@
         <v>45</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>300</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7831,16 +7852,13 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -7851,36 +7869,33 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>45</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>530</v>
+        <v>292</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>45</v>
       </c>
@@ -7891,64 +7906,73 @@
         <v>14</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>45</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>45</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>251</v>
+        <v>498</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>45</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -7959,10 +7983,10 @@
         <v>14</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7976,13 +8000,13 @@
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>536</v>
+        <v>245</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>45</v>
       </c>
@@ -7993,13 +8017,13 @@
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>45</v>
       </c>
@@ -8010,13 +8034,13 @@
         <v>14</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>45</v>
       </c>
@@ -8027,13 +8051,13 @@
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>90</v>
+        <v>504</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>45</v>
       </c>
@@ -8044,13 +8068,13 @@
         <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>45</v>
       </c>
@@ -8061,13 +8085,13 @@
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>266</v>
+        <v>92</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>45</v>
       </c>
@@ -8078,13 +8102,13 @@
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>45</v>
       </c>
@@ -8095,13 +8119,10 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>535</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8115,27 +8136,27 @@
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>45</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>544</v>
+        <v>81</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>543</v>
+        <v>95</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>539</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8143,16 +8164,19 @@
         <v>45</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>538</v>
+        <v>312</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>539</v>
+        <v>502</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8160,101 +8184,101 @@
         <v>45</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>541</v>
+        <v>94</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>15</v>
+        <v>512</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>89</v>
+        <v>511</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>88</v>
+        <v>506</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>388</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>390</v>
+        <v>509</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>385</v>
+        <v>89</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>384</v>
+        <v>88</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8262,16 +8286,16 @@
         <v>15</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>253</v>
+        <v>382</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8279,50 +8303,50 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>549</v>
+        <v>377</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>548</v>
+        <v>376</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8330,121 +8354,121 @@
         <v>15</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>382</v>
+        <v>517</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>22</v>
+        <v>516</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>281</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -8452,16 +8476,16 @@
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -8469,155 +8493,152 @@
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="C255" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256" t="s">
+        <v>14</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C256" t="s">
-        <v>275</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8625,16 +8646,16 @@
         <v>45</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8642,16 +8663,19 @@
         <v>45</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8659,16 +8683,16 @@
         <v>45</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8676,16 +8700,16 @@
         <v>45</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8693,16 +8717,16 @@
         <v>45</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8710,16 +8734,16 @@
         <v>45</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8727,16 +8751,16 @@
         <v>45</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8744,16 +8768,16 @@
         <v>45</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8761,33 +8785,33 @@
         <v>45</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>45</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8795,19 +8819,16 @@
         <v>45</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8815,39 +8836,33 @@
         <v>45</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>45</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8855,19 +8870,19 @@
         <v>45</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8875,19 +8890,19 @@
         <v>45</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8895,79 +8910,79 @@
         <v>45</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>45</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>45</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>45</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8975,70 +8990,79 @@
         <v>45</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>45</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>45</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>45</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>361</v>
+        <v>342</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9046,16 +9070,16 @@
         <v>45</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9063,116 +9087,107 @@
         <v>45</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>45</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>45</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>45</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>45</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>45</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C289" t="s">
         <v>14</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9180,43 +9195,103 @@
         <v>45</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="E290" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F290" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>45</v>
-      </c>
-      <c r="B291" s="3" t="s">
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D292" s="15"/>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D295" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9271,13 +9346,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -9315,7 +9390,7 @@
         <v>108</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>109</v>
@@ -9371,7 +9446,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -9435,7 +9510,7 @@
         <v>126</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
@@ -9474,7 +9549,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -9558,7 +9633,7 @@
         <v>124</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9622,7 +9697,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
@@ -9653,7 +9728,7 @@
         <v>124</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9793,16 +9868,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D5E28C-652E-4CDB-96ED-5F9DC8253AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6844FCE-2AFE-4303-A6C0-0B7F140F8EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="573">
   <si>
     <t>Page</t>
   </si>
@@ -180,15 +180,9 @@
     <t>Attempts to branch above training errors should succeed</t>
   </si>
   <si>
-    <t>Attempts to branch at or below training errors should fail</t>
-  </si>
-  <si>
     <t>Additional Notes</t>
   </si>
   <si>
-    <t>Training errors are due to Deleted Entities or Actions that a training depended on</t>
-  </si>
-  <si>
     <t>Selecting a turn causes special buttons to show up</t>
   </si>
   <si>
@@ -633,9 +627,6 @@
     <t>Verify that you can delete an Action that is not used by a Train Dialog by simply confirming that you want to delete it without a warning poping up.</t>
   </si>
   <si>
-    <t>Add Turn</t>
-  </si>
-  <si>
     <t>EntityLabeling</t>
   </si>
   <si>
@@ -696,12 +687,6 @@
     <t>NO data fields are directly verified. They are indirectly verified by using the model to train and perform other scenarios which would fail if the expected fields were not present.</t>
   </si>
   <si>
-    <t>CreateModels/EntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
-    <t>Train/DateTimeResolver, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>Train/DisqualifyingEntities</t>
   </si>
   <si>
@@ -720,18 +705,12 @@
     <t>Train/DateTimeResolver, Train/DisqualifyingEntities</t>
   </si>
   <si>
-    <t>Train/DisqualifyingEntities, Train/ExpectedEntityLabeling</t>
-  </si>
-  <si>
     <t>Train/WaitVsNoWaitActions</t>
   </si>
   <si>
     <t>Train/DateTimeResolver</t>
   </si>
   <si>
-    <t>Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>EditAndBranching/VerifyEditTrainingControlsAndLabels</t>
   </si>
   <si>
@@ -771,9 +750,6 @@
     <t>CreateModels/EntityLabeling</t>
   </si>
   <si>
-    <t>CreateModels/EntityLabeling, ErrorHandling/ActionUnavailable, Train/DateTimeResolver, Train/LearnedEntityLabeling</t>
-  </si>
-  <si>
     <t>User can label two words of a user utterance as two values for a single multi-valued entity</t>
   </si>
   <si>
@@ -792,9 +768,6 @@
     <t>ErrorHandling/WaitNonWait</t>
   </si>
   <si>
-    <t>Score Action for the last Bot turn that is already an EndSession should enable all EndSession Actions.</t>
-  </si>
-  <si>
     <t>CreateModels/EndSession</t>
   </si>
   <si>
@@ -808,9 +781,6 @@
   </si>
   <si>
     <t>A removed Entity shows in training memory as crossed out</t>
-  </si>
-  <si>
-    <t>CreateModels/EntityLabeling, Train/DateTimeResolver, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling</t>
   </si>
   <si>
     <t>Multi-Value, Negatable, Memory Panel</t>
@@ -1312,9 +1282,6 @@
     <t>Verify that "Train Dialog" filter button navigates to Train Dialog pane and shows only the Train Dialogs in the list that use the selected Action.</t>
   </si>
   <si>
-    <t>Tools/EntityActionMissingUserTurn</t>
-  </si>
-  <si>
     <t>Start with a model with 2 Train Dialogs that could be merged - Edit Train Dialog with a single turn involving 1 Entity label and a Bot Response that renders that Entity - Add a simple text User turn - Score a simple Text Action - Delete the User turn that was just added - Save TD as is. (Bug 2191)</t>
   </si>
   <si>
@@ -1381,9 +1348,6 @@
     <t>Edit an existing Entity and verify that the "Required For Actions" tab is populated with only the correct actions confirm for SET_ENTITY actions (bug 2179) and all other Action Types</t>
   </si>
   <si>
-    <t>Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
     <t>Verify expected state of Entities when Action contains disqualifying entity that is NOT present.</t>
   </si>
   <si>
@@ -1396,9 +1360,6 @@
     <t>Verify MISSING ACTIONs change to SET_ENTITY Actions once used in TD</t>
   </si>
   <si>
-    <t>Train/Comprehensive1</t>
-  </si>
-  <si>
     <t>Verify MISSING ACTIONs show up imediately when an Enum is added from Score Action pane and no Action was created (bug 2243)</t>
   </si>
   <si>
@@ -1411,9 +1372,6 @@
     <t>Verify API Actions are represented correctly in the Score Action pane</t>
   </si>
   <si>
-    <t>Train/Comprehensive2</t>
-  </si>
-  <si>
     <t>Verify that as Entity qualifiers change in each chat turn, all of the Actions depending on those Entities are represented correctly in the Score Action pane</t>
   </si>
   <si>
@@ -1423,15 +1381,9 @@
     <t>Verify that APIs that set Entity memory affect the Score Action pane correctly</t>
   </si>
   <si>
-    <t>Train/Comprehensive3</t>
-  </si>
-  <si>
     <t>Verify CARD Actions are represented correctly in the Score Action pane</t>
   </si>
   <si>
-    <t>Train/Comprehensive4</t>
-  </si>
-  <si>
     <t>Verify that when using each and every enum value, that as each one is used it is changed from MISSING ACTIONs to SET_ENTITY in the Score Action pane</t>
   </si>
   <si>
@@ -1442,9 +1394,6 @@
   </si>
   <si>
     <t>After introducing errors in the Train Dialog by modifying Entity memory verify that all Actions are represented correctly in the Score Actions pane</t>
-  </si>
-  <si>
-    <t>Train/Comprehensive5</t>
   </si>
   <si>
     <t>Edit the only saved Train Dialog of a model - add one round of turns - them modify an Entity label on a unique user turn - verify that the Entity Conflict popup does not show up.</t>
@@ -1497,33 +1446,12 @@
     </r>
   </si>
   <si>
-    <t>Edit Turn, Undo</t>
-  </si>
-  <si>
-    <t>Edit Turn, Manual Undo</t>
-  </si>
-  <si>
-    <t>REMOVE LABEL - Edit a user turn - delete an entity label - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
     <t>RELABEL - Edit a user turn - delete an entity label - relable the same word with a different entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
   </si>
   <si>
-    <t>NEW LABEL - Edit a user turn that has no entity labeled - label a word as an Entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change  (do not use undo button) it back to its original state - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>Edit a user turn - verify "Submit Changes" and "Undo" button is disabled.</t>
-  </si>
-  <si>
     <t>Edit a user turn - select Entity label - edit a different user turn - verify that you can label a word as an Entity. (bug 2264)</t>
   </si>
   <si>
-    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change (do not use undo button) it back to its original state - verify that the "Submit Changes" and "Undo" buttons are disabled and that we can select another chat turn. (bug 2263)</t>
-  </si>
-  <si>
     <t>Create a new Train Dialog - Add two simple text user turns with Bot responses - DO NOT SAVE - Modify the 1st user turn by labeling one word as an entity - save changes - verify the changes are made to the 1st user turn and not to the 2nd one. (bug 2265)</t>
   </si>
   <si>
@@ -1542,24 +1470,12 @@
     <t>This list needs to be updated.</t>
   </si>
   <si>
-    <t>Edit a user turn - change entity label, verify "Submit Changes" and "Undo" buttons are enabled and that no other user turn can be selected.</t>
-  </si>
-  <si>
     <t>EditAndBranching/UndoEntityLabelChanges</t>
   </si>
   <si>
     <t>NEW ENTITY CANCEL - Select word to be labeled - Click +Entity button - cancel - verify that the word remains unlabeled.</t>
   </si>
   <si>
-    <t>NEW ENTITY - Select word to be labeled - Click +Entity button - Add a new Entity - verify that the word is labeled - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
-  </si>
-  <si>
-    <t>MIXED LABEL CHANGES - Edit a user turn - label a currently unlabeled word as an Entity - delete two entity labels - relable one of the same words with a different entity - click undo - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - verify that "Undo" button comes up</t>
-  </si>
-  <si>
     <t>Type in a new user turn - verify cannot select another user turn</t>
   </si>
   <si>
@@ -1599,12 +1515,6 @@
     <t>Verify that the "Undo" (user turn) button is missing when editing a TD, no matter whether it ends with a User or Bot turn.</t>
   </si>
   <si>
-    <t>Type in a new user turn - click "Undo" button - verify that the new turn is discarded.</t>
-  </si>
-  <si>
-    <t>Type in a new user turn - click "Score Actions" button - verify "Undo" button goes away</t>
-  </si>
-  <si>
     <t>Verify togle control for Text Action flips between showing $entity name and Entity's value</t>
   </si>
   <si>
@@ -1648,9 +1558,6 @@
   </si>
   <si>
     <t>Label two different single-value Entities, each with more than one value - remove one label - validate warning message changes</t>
-  </si>
-  <si>
-    <t>todoX</t>
   </si>
   <si>
     <t>Label a single-value Entity with more than one value - save TD - re-edit the TD and validate the additional warning that comes up in and below the chat panel.</t>
@@ -1747,12 +1654,6 @@
     </r>
   </si>
   <si>
-    <t>Train/NewEntityLabelOnExistingPhrase2</t>
-  </si>
-  <si>
-    <t>Train/NewEntityLabelOnExistingPhrase3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -1845,9 +1746,6 @@
     </r>
   </si>
   <si>
-    <t>Train/NewEntityLabelOnExistingPhrase1</t>
-  </si>
-  <si>
     <t>EntityLabeling/NewPhraseUsed2xInconsistentlySameTD</t>
   </si>
   <si>
@@ -2042,12 +1940,6 @@
     <t>This scenario fits here because it is the only way (that I've found) to produce this situation.</t>
   </si>
   <si>
-    <t>CreateModels/EndSession, CreateModels/EntityLabeling, CreateModels/WaitVsNoWaitActions, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/MissingAction, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
-    <t>EditAndBranching/Branching, EditAndBranching/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, Train/ExpectedEntityLabeling, Train/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
-  </si>
-  <si>
     <t>EntityLabeling/ConsistentEntityLabeling</t>
   </si>
   <si>
@@ -2167,6 +2059,176 @@
   </si>
   <si>
     <t>Type user turn - Verify that either no entities are detected, or the ones that are detected are expected. (Bug 2396)</t>
+  </si>
+  <si>
+    <t>CreateModels/EndSession, CreateModels/EntityLabeling, CreateModels/WaitVsNoWaitActions, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/MissingAction, EntityLabeling/ConsistentEntityLabeling,  EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities</t>
+  </si>
+  <si>
+    <t>Train/DateTimeResolver, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/DisqualifyingEntities, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, Train/DateTimeResolver, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>CreateModels/EntityLabeling, ErrorHandling/ActionUnavailable, Train/DateTimeResolver, EntityLabeling/LearnedEntityLabeling</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive1</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive2</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive3</t>
+  </si>
+  <si>
+    <t>ScoreActions/Comprehensive5</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2319Repro</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2379Repro</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase1</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase3</t>
+  </si>
+  <si>
+    <t>EntityLabeling/NewEntityLabelOnExistingPhrase2</t>
+  </si>
+  <si>
+    <t>EditAndBranching/Branching, EntityLabeling/ConsistentEntityLabeling, EditAndBranching/VerifyEditTrainingControlsAndLabels, EndSession/EndSession, ErrorHandling/ActionUnavailable, ErrorHandling/BotModelMismatch, ErrorHandling/MissingAction, ErrorHandling/TwoConsecutiveUserInputs, ErrorHandling/WaitNonWait, Log/WhatsYourName, EntityLabeling/ConsistentEntityLabeling, Train/DisqualifyingEntities, EntityLabeling/ExpectedEntityLabeling, EntityLabeling/LearnedEntityLabeling, Train/WaitVsNoWaitActions</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - verify that "Undo" (user turn) button comes up</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - click "Undo" (user turn) button - verify that the new turn is discarded.</t>
+  </si>
+  <si>
+    <t>Type in a new user turn - click "Score Actions" button - verify "Undo" (user turn) button goes away</t>
+  </si>
+  <si>
+    <t>Add Turn, Undo(user turn)</t>
+  </si>
+  <si>
+    <t>Edit Dialog, Undo(user turn)</t>
+  </si>
+  <si>
+    <t>Edit a user turn - verify "Submit Changes" and "Undo" (labeling) button is disabled.</t>
+  </si>
+  <si>
+    <t>Edit a user turn - change entity label, verify "Submit Changes" and "Undo"  (labeling) buttons are enabled and that no other user turn can be selected.</t>
+  </si>
+  <si>
+    <t>REMOVE LABEL - Edit a user turn - delete an entity label - click Undo  (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>Edit Turn, Undo (labeling)</t>
+  </si>
+  <si>
+    <t>Edit Turn, Manual Undo(labeling)</t>
+  </si>
+  <si>
+    <t>Edit Turn, Undo(labeling)</t>
+  </si>
+  <si>
+    <t>NEW LABEL - Edit a user turn that has no entity labeled - label a word as an Entity - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>MIXED LABEL CHANGES - Edit a user turn - label a currently unlabeled word as an Entity - delete two entity labels - relable one of the same words with a different entity - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change. (bug 2262)</t>
+  </si>
+  <si>
+    <t>NEW ENTITY - Select word to be labeled - Click +Entity button - Add a new Entity - verify that the word is labeled - click Undo (labeling) - verify that the text in the edit pane re-renders correctly - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change (do not use Undo (labeling) button) it back to its original state - verify that the "Submit Changes" and "Undo" (labeling) buttons are disabled and that we can select another chat turn. (bug 2263)</t>
+  </si>
+  <si>
+    <t>MANUAL UNDO - Edit a user turn - change an Entity Label and then manually change  (do not use Undo (labeling) button) it back to its original state - verify that the chat turn does not change.</t>
+  </si>
+  <si>
+    <t>See "Bug 2319: Undo causes Score Actions to happen at the wrong time and errors out" in VSTS for details…too complex to describe here.</t>
+  </si>
+  <si>
+    <t>Edit Action, Reprompt</t>
+  </si>
+  <si>
+    <t>Edit an Action that has "Prompt on unexpected…" checked and a Required Condition - remove a Required Condition - Save - Verify that it saved without error (Bug 2379)</t>
+  </si>
+  <si>
+    <t>Edit an Action that has "Prompt on unexpected…" checked and a Disqualifying Condition - remove a Disqualifying Condition - Save - Verify that it saved without error (Bug 2379)</t>
+  </si>
+  <si>
+    <t>BugRepro/Bug2191Repro</t>
+  </si>
+  <si>
+    <t>Add this as BugRepro/Bug2065Repro.spec.js
+See Settings/Settings.spec.js for example of copy operation</t>
+  </si>
+  <si>
+    <t>Attempts to branch at or below training errors should fail (bug 2354)</t>
+  </si>
+  <si>
+    <t>While this is easy to write a test for it is a case that is pretty low priority based on the bugs filed against it are not being fixed.</t>
+  </si>
+  <si>
+    <t>todo-low priority</t>
+  </si>
+  <si>
+    <t>todo: newer feature high priority</t>
+  </si>
+  <si>
+    <t>todo: easy</t>
+  </si>
+  <si>
+    <t>I intended to add these scenarios to one of the EntityLabeling test suites but I ran into too many bugs to be able to complete them. I believe it was Regression\EntityLabeling\NewPhraseUsed2xInconsistentlySameTD.spec.js that I wanted to add it to.</t>
+  </si>
+  <si>
+    <t>See comment above</t>
+  </si>
+  <si>
+    <t>See comment below</t>
+  </si>
+  <si>
+    <t>If you review the UI source code and look for these strings you will find error messages that can show up under the proper conditions. Need to determine what the conditions are and work out scenarios to make them occur and build tests around them.
+"cl-editdialog-error, cl-editdialog-warning and cl-editdialog-caution"</t>
+  </si>
+  <si>
+    <t>todo: high priority - blocked by bugs</t>
+  </si>
+  <si>
+    <t>todo: low priority - easy but a lot of work investigating the possible scenarios</t>
+  </si>
+  <si>
+    <t>todo: low priority</t>
+  </si>
+  <si>
+    <t>Score Action for the last Bot turn that is already an EndSession - verify that all EndSession Actions are enabled (unless they contain disqualifying conditions)</t>
+  </si>
+  <si>
+    <t>todo: easy, medium priority</t>
+  </si>
+  <si>
+    <t>Add to EndSession\EndSession.spec.js - Or perhaps create a new test suite in this folder.</t>
   </si>
 </sst>
 </file>
@@ -3698,8 +3760,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F312" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F312" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F315" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F315" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="todo"/>
+        <filter val="todo: easy"/>
+        <filter val="todo: newer feature high priority"/>
+        <filter val="todo-low priority"/>
+        <filter val="todoX"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
     <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
@@ -4054,42 +4126,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4097,31 +4169,31 @@
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4132,11 +4204,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,15 +4240,15 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -4185,416 +4257,416 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4608,10 +4680,10 @@
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4622,13 +4694,13 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4639,16 +4711,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -4659,16 +4731,16 @@
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -4679,413 +4751,416 @@
         <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>195</v>
+        <v>553</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="E34" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>195</v>
+        <v>553</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="E35" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>378</v>
+        <v>194</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="105.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>494</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>495</v>
+        <v>206</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>215</v>
+        <v>463</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>391</v>
+        <v>213</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>525</v>
+        <v>375</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>392</v>
+        <v>207</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>279</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -5096,115 +5171,115 @@
         <v>27</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -5215,132 +5290,132 @@
         <v>27</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>545</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>546</v>
+        <v>94</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>545</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C65" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>307</v>
+        <v>514</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>308</v>
+        <v>516</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -5351,13 +5426,13 @@
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -5368,13 +5443,13 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -5385,13 +5460,13 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -5402,13 +5477,13 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -5419,13 +5494,13 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>399</v>
+        <v>301</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -5436,13 +5511,13 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -5453,13 +5528,13 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -5470,13 +5545,13 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -5487,13 +5562,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -5504,13 +5579,13 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -5521,13 +5596,13 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -5538,13 +5613,13 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -5555,13 +5630,13 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -5572,13 +5647,13 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -5589,13 +5664,13 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -5606,13 +5681,13 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -5623,13 +5698,13 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -5640,13 +5715,13 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -5657,13 +5732,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -5674,13 +5749,13 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -5691,13 +5766,13 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -5708,13 +5783,13 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -5725,13 +5800,13 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>466</v>
+        <v>302</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -5742,13 +5817,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -5759,13 +5834,13 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -5776,13 +5851,13 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -5793,13 +5868,13 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -5810,13 +5885,13 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -5827,13 +5902,13 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -5844,13 +5919,13 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -5861,13 +5936,13 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -5878,13 +5953,13 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -5895,761 +5970,761 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="E101" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="E119" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="E124" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>45</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>45</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>45</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>45</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>45</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>45</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>45</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>45</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>45</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>45</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>45</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C122" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>45</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>45</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>45</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>45</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>45</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>45</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>45</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>45</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C131" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>45</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C132" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>45</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>45</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>45</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C135" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>45</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>45</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>45</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>45</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>45</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>45</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>38</v>
+        <v>537</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>45</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>52</v>
+        <v>538</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>45</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>37</v>
+        <v>539</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>42</v>
+        <v>552</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -6660,13 +6735,13 @@
         <v>14</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -6677,13 +6752,13 @@
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -6694,13 +6769,13 @@
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -6711,13 +6786,13 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -6728,13 +6803,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -6745,13 +6820,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -6762,13 +6837,13 @@
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -6779,13 +6854,13 @@
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -6796,16 +6871,13 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -6816,27 +6888,27 @@
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>45</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -6844,16 +6916,19 @@
         <v>45</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>245</v>
+        <v>46</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>243</v>
+        <v>560</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6861,1108 +6936,1132 @@
         <v>45</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E158" s="3" t="s">
+      <c r="E159" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C161" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>45</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>45</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>45</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>45</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>45</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C182" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C184" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>45</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C185" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>45</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C188" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>45</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>45</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>45</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>45</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>45</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>45</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>45</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>45</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>45</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C205" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>45</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>45</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" t="s">
+        <v>14</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C211" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C212" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>45</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>45</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C216" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C218" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>45</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C220" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>45</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E221" s="3" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>45</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C159" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>45</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C160" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>45</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>45</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C162" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>45</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C163" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>45</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>45</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C165" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>45</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C166" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>45</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>45</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C169" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>45</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C170" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>45</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>45</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C172" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>45</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C173" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>45</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C174" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>45</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C175" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>45</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>45</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>45</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>45</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C179" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>45</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>45</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C181" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>45</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C182" t="s">
-        <v>14</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>45</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C183" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>45</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C184" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>45</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C185" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>45</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C186" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>45</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C187" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>45</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C188" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>45</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C189" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>45</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C190" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>45</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C191" t="s">
-        <v>14</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>45</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C192" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>45</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C193" t="s">
-        <v>12</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>45</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C194" t="s">
-        <v>12</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>45</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" t="s">
-        <v>12</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>45</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C196" t="s">
-        <v>14</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>45</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C197" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>45</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C198" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>45</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C199" t="s">
-        <v>14</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>45</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>45</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C201" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C202" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>45</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C203" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>45</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C204" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>45</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C205" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>45</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C206" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>45</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C207" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>45</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C208" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>45</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C209" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>45</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C210" t="s">
-        <v>14</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>45</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C211" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>45</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C212" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>45</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C213" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>45</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C214" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>45</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C215" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>45</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C216" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>45</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>45</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C218" t="s">
-        <v>14</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>45</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C219" t="s">
-        <v>14</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>45</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C220" t="s">
-        <v>14</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>45</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C221" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7970,189 +8069,201 @@
         <v>45</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>45</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>45</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C224" t="s">
         <v>14</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>45</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>45</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>45</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C227" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E225" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>45</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C226" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E226" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>45</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C227" t="s">
-        <v>14</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="E227" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>45</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>45</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>45</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>45</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>543</v>
+        <v>93</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>45</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>538</v>
+        <v>309</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>539</v>
+        <v>498</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8160,291 +8271,291 @@
         <v>45</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>541</v>
+        <v>92</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="C234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>89</v>
+        <v>507</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>15</v>
+        <v>504</v>
       </c>
       <c r="C235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>88</v>
+        <v>502</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>15</v>
+        <v>504</v>
       </c>
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>390</v>
+        <v>505</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C237" t="s">
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>385</v>
+        <v>87</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C238" t="s">
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>384</v>
+        <v>86</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>15</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>383</v>
+        <v>15</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>549</v>
+        <v>374</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>548</v>
+        <v>373</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>15</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>15</v>
+        <v>372</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>382</v>
+        <v>513</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>22</v>
+        <v>512</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>64</v>
+        <v>371</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>281</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -8452,16 +8563,16 @@
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="C250" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -8469,155 +8580,152 @@
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="D254" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E254" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="C255" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8625,599 +8733,673 @@
         <v>45</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="C260" t="s">
         <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>45</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>45</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>45</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>45</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>45</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>45</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>45</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>45</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>45</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>45</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F270" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>45</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F271" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:6" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>45</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>45</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>45</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="E274" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C275" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>45</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>45</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>45</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C279" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>45</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C280" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>45</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C281" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>45</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C282" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C283" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C284" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F274" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>45</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C275" t="s">
-        <v>14</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>45</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C276" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E276" s="3" t="s">
+      <c r="E284" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>45</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C285" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="F276" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>45</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C277" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>45</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C278" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>45</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C279" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>45</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C280" t="s">
-        <v>14</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>45</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C281" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>45</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C282" t="s">
-        <v>14</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>45</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C283" t="s">
-        <v>14</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>45</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C284" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" s="3" t="s">
+      <c r="E285" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C286" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C287" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>45</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E284" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>45</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C285" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F285" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>45</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C286" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>45</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C287" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>45</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>45</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>45</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>45</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D292" s="15"/>
-    </row>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D295" s="15"/>
+    </row>
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9263,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9271,13 +9453,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -9309,111 +9491,111 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9421,38 +9603,38 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9460,21 +9642,21 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -9483,57 +9665,57 @@
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9541,24 +9723,24 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9569,13 +9751,13 @@
         <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9583,10 +9765,10 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9594,13 +9776,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9608,13 +9790,13 @@
         <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -9622,13 +9804,13 @@
         <v>45</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -9636,10 +9818,10 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9647,13 +9829,13 @@
         <v>45</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9667,74 +9849,74 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9742,30 +9924,30 @@
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" t="s">
         <v>171</v>
-      </c>
-      <c r="B46" t="s">
-        <v>173</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -9793,16 +9975,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6844FCE-2AFE-4303-A6C0-0B7F140F8EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5952CB56-A102-4B97-9E50-E1110AE959D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="577">
   <si>
     <t>Page</t>
   </si>
@@ -2229,6 +2229,18 @@
   </si>
   <si>
     <t>Add to EndSession\EndSession.spec.js - Or perhaps create a new test suite in this folder.</t>
+  </si>
+  <si>
+    <t>todo: easy, low priority</t>
+  </si>
+  <si>
+    <t>Since this is an odd scenario, it should probably have its own test in: BugRepro\Bug2031Repro.spec.js</t>
+  </si>
+  <si>
+    <t>Change an Entity's value by adding a new user turn and labeling a different word as that entity - verify that the displaced word shows in Training Memory as crossed out.</t>
+  </si>
+  <si>
+    <t>EntityLabeling\LearnedEntityLabeling, Train\ApiMemoryManipulation</t>
   </si>
 </sst>
 </file>
@@ -3760,8 +3772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F315" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F315" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F318" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F318" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}">
     <filterColumn colId="4">
       <filters>
         <filter val="todo"/>
@@ -4204,11 +4216,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,7 +8292,10 @@
         <v>92</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>271</v>
+        <v>573</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8535,10 +8550,10 @@
         <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>247</v>
+        <v>575</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>271</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -8558,55 +8573,32 @@
         <v>524</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>3</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" t="s">
-        <v>11</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -8614,13 +8606,13 @@
         <v>3</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>271</v>
@@ -8631,64 +8623,64 @@
         <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>257</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>259</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>271</v>
@@ -8696,33 +8688,33 @@
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="C258" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>271</v>
@@ -8730,73 +8722,70 @@
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>45</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C263" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>340</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8810,11 +8799,14 @@
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="F264" s="3" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="265" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
@@ -8827,7 +8819,7 @@
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>340</v>
@@ -8844,7 +8836,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>340</v>
@@ -8861,7 +8853,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>340</v>
@@ -8878,7 +8870,7 @@
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>340</v>
@@ -8895,7 +8887,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>340</v>
@@ -8912,7 +8904,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>340</v>
@@ -8929,13 +8921,13 @@
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>45</v>
       </c>
@@ -8946,7 +8938,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>340</v>
@@ -8963,13 +8955,10 @@
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -8983,16 +8972,13 @@
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>45</v>
       </c>
@@ -9003,13 +8989,10 @@
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -9023,10 +9006,10 @@
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F276" s="3" t="s">
         <v>308</v>
@@ -9043,10 +9026,10 @@
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>308</v>
@@ -9063,16 +9046,16 @@
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>45</v>
       </c>
@@ -9083,16 +9066,16 @@
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>45</v>
       </c>
@@ -9103,16 +9086,16 @@
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>45</v>
       </c>
@@ -9123,10 +9106,10 @@
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>308</v>
@@ -9143,7 +9126,7 @@
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>339</v>
@@ -9152,55 +9135,64 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>45</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>45</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>45</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9214,7 +9206,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>351</v>
@@ -9231,13 +9223,13 @@
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>45</v>
       </c>
@@ -9248,16 +9240,13 @@
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>45</v>
       </c>
@@ -9268,16 +9257,13 @@
         <v>14</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>45</v>
       </c>
@@ -9288,16 +9274,13 @@
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F290" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>45</v>
       </c>
@@ -9308,7 +9291,7 @@
         <v>14</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>320</v>
@@ -9317,7 +9300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>45</v>
       </c>
@@ -9328,7 +9311,7 @@
         <v>14</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>320</v>
@@ -9337,52 +9320,109 @@
         <v>308</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>45</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>45</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B296" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C293" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="3" t="s">
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E296" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="F296" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>45</v>
-      </c>
-      <c r="B294" s="3" t="s">
+    <row r="297" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>45</v>
+      </c>
+      <c r="B297" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C294" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="3" t="s">
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E297" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="F294" s="3" t="s">
+      <c r="F297" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D295" s="15"/>
-    </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D298" s="15"/>
+    </row>
     <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
@@ -9400,6 +9440,9 @@
     <row r="313" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="314" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="315" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9596633-F830-417E-9BD8-D6401FE8805F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D2F9B-B6D7-4A3B-A76C-93DDEAF9E436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="591">
   <si>
     <t>Page</t>
   </si>
@@ -111,9 +111,6 @@
     <t>All values show up as a list when displayed in training webchat</t>
   </si>
   <si>
-    <t>All values except for negated one shows up as a list when displayed in training webchat</t>
-  </si>
-  <si>
     <t>Entity Dialog</t>
   </si>
   <si>
@@ -180,15 +177,9 @@
     <t>Attempts to branch above training errors should succeed</t>
   </si>
   <si>
-    <t>Attempts to branch at or below training errors should fail</t>
-  </si>
-  <si>
     <t>Additional Notes</t>
   </si>
   <si>
-    <t>Training errors are due to Deleted Entities or Actions that a training depended on</t>
-  </si>
-  <si>
     <t>Selecting a turn causes special buttons to show up</t>
   </si>
   <si>
@@ -772,9 +763,6 @@
   </si>
   <si>
     <t>ErrorHandling/WaitNonWait</t>
-  </si>
-  <si>
-    <t>Score Action for the last Bot turn that is already an EndSession should enable all EndSession Actions.</t>
   </si>
   <si>
     <t>CreateModels/EndSession</t>
@@ -863,12 +851,6 @@
     <t>Navigation</t>
   </si>
   <si>
-    <t>Clicking on the 1st, last or any turn in Tree View should take you to the Train Dialog (bug 2097)</t>
-  </si>
-  <si>
-    <t>Click on a turn that comes after labeling an entity and it should show the Entity Detection and Memory panes. (bug 2096)</t>
-  </si>
-  <si>
     <t>Merge Dialog</t>
   </si>
   <si>
@@ -891,9 +873,6 @@
   </si>
   <si>
     <t>Copy a model and verify that modifications to a Train Dialog in the copy does not affect the original. See (bug 2065) for exact steps.</t>
-  </si>
-  <si>
-    <t>todo</t>
   </si>
   <si>
     <t>"todo" in the “Test Name” column indicates there is no test coverage for the scenario given.
@@ -907,9 +886,6 @@
     <t>Entity Dialog, Train Dialog</t>
   </si>
   <si>
-    <t>** TODO ** Create a scenario specific to each resolver type to test it being used in a Train Dialog.</t>
-  </si>
-  <si>
     <t>Label a word as an Entity that was NOT labeled in prior trainings - Verify Score Actions button pops up a modal dialog to explain the conflict - Close button should close the dialog and leave the training as user set it</t>
   </si>
   <si>
@@ -1001,9 +977,6 @@
   </si>
   <si>
     <t>Verify that buttons clicked on a card causes a user turn to be appended to the end of the chat. Even if the card popped up many turns earlier in the chat.</t>
-  </si>
-  <si>
-    <t>see video "Prompts with buttons.mp4" for more info</t>
   </si>
   <si>
     <t>see videos, "Render and Logic Errors.mp4, exception testing.mp4, API Call Cards.mp4" for more info</t>
@@ -1569,9 +1542,6 @@
     <t>Label two different single-value Entities, each with more than one value - remove one label - validate warning message changes</t>
   </si>
   <si>
-    <t>todoX</t>
-  </si>
-  <si>
     <t>Label a single-value Entity with more than one value - save TD - re-edit the TD and validate the additional warning that comes up in and below the chat panel.</t>
   </si>
   <si>
@@ -2191,6 +2161,129 @@
   </si>
   <si>
     <t>BugRepro/Bug2191Repro</t>
+  </si>
+  <si>
+    <t>Attempts to branch at or below training errors should fail (bug 2354)</t>
+  </si>
+  <si>
+    <t>I intended to add these scenarios to one of the EntityLabeling test suites but I ran into too many bugs to be able to complete them. I believe it was Regression\EntityLabeling\NewPhraseUsed2xInconsistentlySameTD.spec.js that I wanted to add it to.</t>
+  </si>
+  <si>
+    <t>See comment above</t>
+  </si>
+  <si>
+    <t>See comment below</t>
+  </si>
+  <si>
+    <t>If you review the UI source code and look for these strings you will find error messages that can show up under the proper conditions. Need to determine what the conditions are and work out scenarios to make them occur and build tests around them.
+"cl-editdialog-error, cl-editdialog-warning and cl-editdialog-caution"</t>
+  </si>
+  <si>
+    <t>todo: low priority - easy but a lot of work investigating the possible scenarios</t>
+  </si>
+  <si>
+    <t>todo: low priority</t>
+  </si>
+  <si>
+    <t>Score Action for the last Bot turn that is already an EndSession - verify that all EndSession Actions are enabled (unless they contain disqualifying conditions)</t>
+  </si>
+  <si>
+    <t>todo: easy, medium priority</t>
+  </si>
+  <si>
+    <t>Add to EndSession\EndSession.spec.js - Or perhaps create a new test suite in this folder.</t>
+  </si>
+  <si>
+    <t>todo: easy, low priority</t>
+  </si>
+  <si>
+    <t>Since this is an odd scenario, it should probably have its own test in: BugRepro\Bug2031Repro.spec.js</t>
+  </si>
+  <si>
+    <t>Change an Entity's value by adding a new user turn and labeling a different word as that entity - verify that the displaced word shows in Training Memory as crossed out.</t>
+  </si>
+  <si>
+    <t>EntityLabeling\LearnedEntityLabeling, Train\ApiMemoryManipulation</t>
+  </si>
+  <si>
+    <t>todo: Experiment with this feature to give better guidance.</t>
+  </si>
+  <si>
+    <t>todo: moderate, low priority</t>
+  </si>
+  <si>
+    <t>Creating a few test methods to pass in the data to confirm these is not too difficult, but to make it automatically check this on all turns would be more of a challenge. To do the later look at the example in support\components\ScorerModal.js in the GeneratedData class and how it is used in tests.</t>
+  </si>
+  <si>
+    <t>This really should also be verifying there are not extra values in memory that we are not expecting.</t>
+  </si>
+  <si>
+    <t>CreateModels\EntityLabeling, EntityLabeling\ExpectedEntityLabeling, EntityLabeling\LearnedEntityLabeling, Train\ApiMemoryManipulation, Train\DateTimeResolver, Train\DisqualifyingEntities</t>
+  </si>
+  <si>
+    <t>Edit a Log Dialog - Verify that all values show up as a list when displayed in training webchat</t>
+  </si>
+  <si>
+    <t>Can use MemoryTableComponent.VerifyEntityValues to do this, or even better would be to follow the example in support\components\ScorerModal.js in the GeneratedData class and how it is used in tests.</t>
+  </si>
+  <si>
+    <t>todo: easy to moderate, low priority</t>
+  </si>
+  <si>
+    <t>All values except for negated ones shows up as a list when displayed in training webchat</t>
+  </si>
+  <si>
+    <t>Edit a Log Dialog - Verify that all values except for negated ones show up as a list when displayed in training webchat</t>
+  </si>
+  <si>
+    <t>see comments above</t>
+  </si>
+  <si>
+    <t>** TODO ** Create multiple scenarios specific to each resolver type to test it being used in a Train Dialog.</t>
+  </si>
+  <si>
+    <t>todo: FOR ME TODO ASAP</t>
+  </si>
+  <si>
+    <t>todo: easy, good 1st test</t>
+  </si>
+  <si>
+    <t>Add this as BugRepro/Bug2065Repro.spec.js
+See Smoke/required/Settings/Settings.spec.js for example of copy operation</t>
+  </si>
+  <si>
+    <t>todo: moderate, high priority</t>
+  </si>
+  <si>
+    <t>Newer feature - no helpers yet for the functionality to test</t>
+  </si>
+  <si>
+    <t>Starting in Tree View, click on a turn that comes after labeling an entity and it should show the Entity Detection and Memory panes. (bug 2096)</t>
+  </si>
+  <si>
+    <t>Starting in Tree View, clicking on the 1st, last or any turn should take you to the Train Dialog (bug 2097)</t>
+  </si>
+  <si>
+    <t>Open a model  with a Train Dialog that has enough turns that you must scroll to see them all - Starting in Tree View, click on one of the first turns - Verifty that you can see the selected turn. (bug 2096)</t>
+  </si>
+  <si>
+    <t>todo: moderate, low priority - manual test?</t>
+  </si>
+  <si>
+    <t>While this is easy to write a test for it is a case that is pretty low priority based on the bug filed against it are not being fixed.</t>
+  </si>
+  <si>
+    <t>maual</t>
+  </si>
+  <si>
+    <t>This was fixed by disabling the other controls until the changes were submitted or undone…thus this is easier to test manually.</t>
+  </si>
+  <si>
+    <t>todo: medium, high priority - blocked by bugs</t>
+  </si>
+  <si>
+    <t>I intended to add these scenarios to one of the EntityLabeling test suites but I ran into too many bugs to be able to complete them. I believe it was Regression\EntityLabeling\NewPhraseUsed2xInconsistentlySameTD.spec.js that I wanted to add it to.
+The thing that makes these scenarios "medium" difficulty to add rather than easy, because the helper functions are already in place, is getting the scenario right. There are many similar scenarios that have only subtle differences, but manual testing has proven these subtleties and the bugs produced do make a difference.</t>
   </si>
 </sst>
 </file>
@@ -2351,19 +2444,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2381,6 +2461,19 @@
           <color theme="4"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2495,98 +2588,101 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$31</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2594,15 +2690,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$C$2:$C$31</c:f>
+              <c:f>'Weekly Progress'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>255</c:v>
@@ -2611,16 +2707,16 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>246</c:v>
@@ -2629,63 +2725,66 @@
                   <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2722,98 +2821,101 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$31</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
+                  <c:v>43833</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2821,10 +2923,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$D$2:$D$31</c:f>
+              <c:f>'Weekly Progress'!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -2838,16 +2940,16 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>38</c:v>
@@ -2856,63 +2958,66 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3684,13 +3789,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3722,22 +3827,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F315" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F315" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F319" totalsRowShown="0" headerRowBorderDxfId="4" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F319" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
-    <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{B0123158-48C7-47B5-8788-3102666127B5}" name="Page"/>
-    <tableColumn id="6" xr3:uid="{9E19D589-D83D-4717-9F5D-BD2AD9F935E9}" name="Test Validations" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{BC84EEBB-5D19-4499-B7FE-E62F4B6382CE}" name="Test Name" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{100F57C4-33FA-4044-AB33-66A70FCA33C1}" name="Additional Notes" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{9E19D589-D83D-4717-9F5D-BD2AD9F935E9}" name="Test Validations" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{BC84EEBB-5D19-4499-B7FE-E62F4B6382CE}" name="Test Name" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{100F57C4-33FA-4044-AB33-66A70FCA33C1}" name="Additional Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7660BDF-5A1B-49D9-81EE-59363A3E189C}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7660BDF-5A1B-49D9-81EE-59363A3E189C}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Heading 1">
   <autoFilter ref="A1:F8" xr:uid="{ABDE53FE-36A6-48A7-8159-AB5687FE6CE2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{12C7EC41-7AEA-4B95-B723-8858111BAC3A}" name="Area"/>
@@ -3752,10 +3857,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D32" totalsRowShown="0">
+  <autoFilter ref="A1:D32" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{6229C132-74E5-42FB-A81D-37498D4788E1}" name="Scenarios"/>
     <tableColumn id="3" xr3:uid="{97683F47-20D1-4334-8379-20CB66181DC2}" name="Coverage"/>
     <tableColumn id="4" xr3:uid="{0609BF2F-BE77-41CE-A44E-FF4395A9754B}" name="Remaining">
@@ -4078,42 +4183,42 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4121,31 +4226,31 @@
     </row>
     <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4156,11 +4261,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F295"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4200,16 +4305,16 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4217,16 +4322,16 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,16 +4339,16 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4251,16 +4356,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,16 +4373,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4285,16 +4390,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4302,16 +4407,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4319,16 +4424,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,16 +4441,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4353,19 +4458,19 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4373,19 +4478,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4393,19 +4498,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4413,19 +4518,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4433,19 +4538,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4453,16 +4558,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4470,16 +4575,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,16 +4592,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4504,16 +4609,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4521,16 +4626,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,16 +4643,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4555,16 +4660,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4572,16 +4677,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4589,16 +4694,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4606,16 +4711,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4626,13 +4731,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -4643,13 +4748,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4660,16 +4765,16 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4680,16 +4785,16 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4700,13 +4805,13 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4714,16 +4819,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4731,16 +4836,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4748,16 +4853,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4765,16 +4870,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="E34" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4782,16 +4887,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E35" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,16 +4904,16 @@
         <v>12</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4816,16 +4921,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4833,16 +4938,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4850,16 +4955,16 @@
         <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -4867,16 +4972,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4884,16 +4989,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4901,16 +5006,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4918,19 +5023,19 @@
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4938,16 +5043,16 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.25">
@@ -4961,13 +5066,13 @@
         <v>2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,13 +5086,13 @@
         <v>17</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5001,10 +5106,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5012,3239 +5117,3287 @@
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B65" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="B66" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="C66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C123" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C129" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C145" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E146" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>44</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C156" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>45</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C157" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E157" s="3" t="s">
-        <v>274</v>
+        <v>561</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>47</v>
+        <v>551</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>274</v>
+        <v>561</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C161" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C162" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C163" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C164" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C170" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C171" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C175" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C176" t="s">
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C177" t="s">
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C182" t="s">
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C183" t="s">
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C184" t="s">
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C185" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C187" t="s">
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C188" t="s">
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C189" t="s">
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C190" t="s">
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C191" t="s">
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C193" t="s">
         <v>14</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C194" t="s">
         <v>14</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C198" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C199" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E198" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>45</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C199" t="s">
-        <v>14</v>
-      </c>
-      <c r="D199" s="3" t="s">
+      <c r="E201" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>45</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" s="3" t="s">
+      <c r="E202" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E200" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>45</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C201" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="4" t="s">
+      <c r="E203" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>44</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C204" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>45</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C202" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="4" t="s">
+      <c r="E204" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E202" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>45</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C203" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>45</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C204" t="s">
-        <v>14</v>
-      </c>
-      <c r="D204" s="4" t="s">
+      <c r="E206" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>45</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C205" t="s">
-        <v>14</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>45</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C206" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="4" t="s">
+      <c r="E207" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>45</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C207" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>45</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C208" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="E208" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C209" t="s">
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>274</v>
+        <v>556</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>274</v>
+        <v>566</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>274</v>
+        <v>557</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C218" t="s">
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>274</v>
+        <v>557</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>274</v>
+        <v>557</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>245</v>
+        <v>558</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>274</v>
+        <v>559</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C224" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C224" t="s">
-        <v>14</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="E224" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C226" t="s">
         <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>274</v>
+        <v>559</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>274</v>
+        <v>559</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>274</v>
+        <v>559</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>274</v>
+        <v>561</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8258,10 +8411,10 @@
         <v>15</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,10 +8428,10 @@
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8292,10 +8445,10 @@
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8303,16 +8456,16 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8320,16 +8473,16 @@
         <v>15</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8337,16 +8490,16 @@
         <v>15</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8354,16 +8507,16 @@
         <v>15</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8377,10 +8530,10 @@
         <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -8394,10 +8547,10 @@
         <v>15</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8411,13 +8564,13 @@
         <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -8425,7 +8578,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -8434,7 +8587,7 @@
         <v>22</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8442,16 +8595,16 @@
         <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>250</v>
+        <v>563</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>274</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8459,839 +8612,908 @@
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>3</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" t="s">
-        <v>11</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>3</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>5</v>
+        <v>245</v>
       </c>
       <c r="C253" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>278</v>
+        <v>570</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>261</v>
+        <v>573</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>274</v>
+        <v>572</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>264</v>
+        <v>574</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>274</v>
+        <v>572</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="C258" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>265</v>
+        <v>576</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>266</v>
+        <v>44</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C259" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>274</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>274</v>
+        <v>572</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>314</v>
+        <v>582</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>315</v>
+        <v>584</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>343</v>
+        <v>585</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>343</v>
+        <v>561</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>343</v>
+        <v>587</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C267" t="s">
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s">
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C274" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F275" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F276" s="3" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C280" t="s">
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C282" t="s">
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>354</v>
+        <v>333</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="E287" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>44</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>44</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C289" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>44</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C290" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>44</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>44</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C292" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>44</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>44</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C294" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>44</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C295" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>44</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>45</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>45</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>45</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>45</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C291" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>45</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C292" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>45</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C293" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>45</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C294" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D295" s="15"/>
+      <c r="E296" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>44</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>44</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D299" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9338,21 +9560,21 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -9384,111 +9606,111 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9496,38 +9718,38 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9535,21 +9757,21 @@
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -9558,57 +9780,57 @@
     </row>
     <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9616,24 +9838,24 @@
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9641,94 +9863,94 @@
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9742,74 +9964,74 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9817,30 +10039,30 @@
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" t="s">
         <v>171</v>
-      </c>
-      <c r="B47" t="s">
-        <v>174</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -9852,10 +10074,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9868,28 +10090,28 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="B2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C28" si="0">SUM(B2,-D2)</f>
-        <v>256</v>
+        <f t="shared" ref="C2:C29" si="0">SUM(B2,-D2)</f>
+        <v>263</v>
       </c>
       <c r="D2">
         <v>35</v>
@@ -9897,14 +10119,14 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="B3">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -9912,7 +10134,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="B4">
         <v>290</v>
@@ -9927,7 +10149,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>43798</v>
+        <v>43812</v>
       </c>
       <c r="B5">
         <v>290</v>
@@ -9942,67 +10164,67 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="B6">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="B7">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="B8">
         <v>284</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="B9">
         <v>284</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="B10">
         <v>284</v>
@@ -10017,7 +10239,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B11">
         <v>284</v>
@@ -10032,29 +10254,29 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="B12">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="B13">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D13">
         <v>41</v>
@@ -10062,104 +10284,104 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="B14">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="B15">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="B16">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="B17">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="B18">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="B19">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="B20">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D20">
         <v>41</v>
@@ -10167,44 +10389,44 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43665</v>
+        <v>43693</v>
       </c>
       <c r="B21">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="B22">
         <v>199</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D22">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="B23">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D23">
         <v>54</v>
@@ -10212,121 +10434,136 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="B24">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>43638</v>
+        <v>43644</v>
       </c>
       <c r="B25">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D25">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>43630</v>
+        <v>43638</v>
       </c>
       <c r="B26">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D26">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="B27">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D27">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="B28">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D28">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B29">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C29">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D29">
-        <f>B29-C29</f>
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="B30">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C30">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <f>B30-C30</f>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="B31">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <f>B31-C31</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>43595</v>
+      </c>
+      <c r="B32">
+        <v>172</v>
+      </c>
+      <c r="C32">
+        <v>76</v>
+      </c>
+      <c r="D32">
+        <f>B32-C32</f>
         <v>96</v>
       </c>
     </row>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D2F9B-B6D7-4A3B-A76C-93DDEAF9E436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C274724-6D0A-4B52-82ED-D005624A8530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="594">
   <si>
     <t>Page</t>
   </si>
@@ -2285,12 +2285,21 @@
     <t>I intended to add these scenarios to one of the EntityLabeling test suites but I ran into too many bugs to be able to complete them. I believe it was Regression\EntityLabeling\NewPhraseUsed2xInconsistentlySameTD.spec.js that I wanted to add it to.
 The thing that makes these scenarios "medium" difficulty to add rather than easy, because the helper functions are already in place, is getting the scenario right. There are many similar scenarios that have only subtle differences, but manual testing has proven these subtleties and the bugs produced do make a difference.</t>
   </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Verify font/css elements - Very little testing is done to verify fonts used to distinguish states of elements.</t>
+  </si>
+  <si>
+    <t>We only have a few branching tests. There must be more scenarios that we can cover around this feature. Search for "BranchChatTurn" to see what is currently covered.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2351,14 +2360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,11 +2399,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2434,15 +2434,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2461,19 +2475,6 @@
           <color theme="4"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2588,101 +2589,104 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$32</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2690,18 +2694,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$C$2:$C$32</c:f>
+              <c:f>'Weekly Progress'!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>255</c:v>
@@ -2710,16 +2714,16 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>246</c:v>
@@ -2728,63 +2732,66 @@
                   <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2821,101 +2828,104 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$32</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2923,12 +2933,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$D$2:$D$32</c:f>
+              <c:f>'Weekly Progress'!$D$2:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35</c:v>
@@ -2943,16 +2953,16 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>38</c:v>
@@ -2961,63 +2971,66 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3789,13 +3802,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3827,22 +3840,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F319" totalsRowShown="0" headerRowBorderDxfId="4" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F319" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
   <autoFilter ref="A1:F319" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
-    <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{B0123158-48C7-47B5-8788-3102666127B5}" name="Page"/>
-    <tableColumn id="6" xr3:uid="{9E19D589-D83D-4717-9F5D-BD2AD9F935E9}" name="Test Validations" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{BC84EEBB-5D19-4499-B7FE-E62F4B6382CE}" name="Test Name" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{100F57C4-33FA-4044-AB33-66A70FCA33C1}" name="Additional Notes" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{9E19D589-D83D-4717-9F5D-BD2AD9F935E9}" name="Test Validations" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{BC84EEBB-5D19-4499-B7FE-E62F4B6382CE}" name="Test Name" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{100F57C4-33FA-4044-AB33-66A70FCA33C1}" name="Additional Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7660BDF-5A1B-49D9-81EE-59363A3E189C}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7660BDF-5A1B-49D9-81EE-59363A3E189C}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Heading 1">
   <autoFilter ref="A1:F8" xr:uid="{ABDE53FE-36A6-48A7-8159-AB5687FE6CE2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{12C7EC41-7AEA-4B95-B723-8858111BAC3A}" name="Area"/>
@@ -3857,10 +3870,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6229C132-74E5-42FB-A81D-37498D4788E1}" name="Scenarios"/>
     <tableColumn id="3" xr3:uid="{97683F47-20D1-4334-8379-20CB66181DC2}" name="Coverage"/>
     <tableColumn id="4" xr3:uid="{0609BF2F-BE77-41CE-A44E-FF4395A9754B}" name="Remaining">
@@ -4261,11 +4274,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9512,8 +9525,30 @@
         <v>377</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D299" s="15"/>
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>591</v>
+      </c>
+      <c r="D299" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>591</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D300" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>561</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -10074,10 +10109,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10104,29 +10139,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="B2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C29" si="0">SUM(B2,-D2)</f>
+        <f t="shared" ref="C2:C30" si="0">SUM(B2,-D2)</f>
         <v>263</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="B3">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D3">
         <v>35</v>
@@ -10134,14 +10169,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="B4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -10149,7 +10184,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="B5">
         <v>290</v>
@@ -10164,7 +10199,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>43798</v>
+        <v>43812</v>
       </c>
       <c r="B6">
         <v>290</v>
@@ -10179,67 +10214,67 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="B7">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="B8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="B9">
         <v>284</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="B10">
         <v>284</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="B11">
         <v>284</v>
@@ -10254,7 +10289,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B12">
         <v>284</v>
@@ -10269,29 +10304,29 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="B13">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="B14">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D14">
         <v>41</v>
@@ -10299,104 +10334,104 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="B15">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="B16">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="B17">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="B18">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="B19">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="B20">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="B21">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D21">
         <v>41</v>
@@ -10404,44 +10439,44 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>43665</v>
+        <v>43693</v>
       </c>
       <c r="B22">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="B23">
         <v>199</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="B24">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D24">
         <v>54</v>
@@ -10449,121 +10484,136 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="B25">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>43638</v>
+        <v>43644</v>
       </c>
       <c r="B26">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>43630</v>
+        <v>43638</v>
       </c>
       <c r="B27">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D27">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="B28">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D28">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="B29">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D29">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B30">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D30">
-        <f>B30-C30</f>
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="B31">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C31">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D31">
         <f>B31-C31</f>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="B32">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C32">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <f>B32-C32</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>43595</v>
+      </c>
+      <c r="B33">
+        <v>172</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <f>B33-C33</f>
         <v>96</v>
       </c>
     </row>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C274724-6D0A-4B52-82ED-D005624A8530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177595A1-4068-479A-A052-EA5B4094A94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="595">
   <si>
     <t>Page</t>
   </si>
@@ -2293,6 +2293,9 @@
   </si>
   <si>
     <t>We only have a few branching tests. There must be more scenarios that we can cover around this feature. Search for "BranchChatTurn" to see what is currently covered.</t>
+  </si>
+  <si>
+    <t>API callback throws an exception - Verify only one chat message shows up (as opposed to the 2 that show up with bug 2441)</t>
   </si>
 </sst>
 </file>
@@ -3840,8 +3843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F319" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F319" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F320" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F320" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
     <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
@@ -4274,11 +4277,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9303,21 +9306,21 @@
         <v>302</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>44</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>341</v>
+        <v>594</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9331,7 +9334,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>345</v>
@@ -9348,7 +9351,7 @@
         <v>14</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>345</v>
@@ -9365,7 +9368,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>345</v>
@@ -9382,13 +9385,13 @@
         <v>14</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>44</v>
       </c>
@@ -9399,14 +9402,11 @@
         <v>14</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E292" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F292" s="3" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
@@ -9419,7 +9419,7 @@
         <v>14</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>314</v>
@@ -9428,7 +9428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>44</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>314</v>
@@ -9459,7 +9459,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>314</v>
@@ -9479,7 +9479,7 @@
         <v>14</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>314</v>
@@ -9493,60 +9493,80 @@
         <v>44</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>44</v>
+      </c>
+      <c r="B298" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C297" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" s="3" t="s">
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>44</v>
-      </c>
-      <c r="B298" s="3" t="s">
+    <row r="299" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>44</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C298" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="3" t="s">
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F298" s="3" t="s">
+      <c r="F299" s="3" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>591</v>
-      </c>
-      <c r="D299" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>591</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="D300" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>591</v>
+      </c>
+      <c r="B301" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D300" s="15" t="s">
+      <c r="D301" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E301" s="3" t="s">
         <v>561</v>
       </c>
     </row>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177595A1-4068-479A-A052-EA5B4094A94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5144AE-DB84-4F8F-83DE-469C551EF54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="601">
   <si>
     <t>Page</t>
   </si>
@@ -2286,9 +2286,6 @@
 The thing that makes these scenarios "medium" difficulty to add rather than easy, because the helper functions are already in place, is getting the scenario right. There are many similar scenarios that have only subtle differences, but manual testing has proven these subtleties and the bugs produced do make a difference.</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Verify font/css elements - Very little testing is done to verify fonts used to distinguish states of elements.</t>
   </si>
   <si>
@@ -2296,6 +2293,27 @@
   </si>
   <si>
     <t>API callback throws an exception - Verify only one chat message shows up (as opposed to the 2 that show up with bug 2441)</t>
+  </si>
+  <si>
+    <t>Train Dialog, Model Page</t>
+  </si>
+  <si>
+    <t>todo: difficult, medium priority, need to create plan</t>
+  </si>
+  <si>
+    <t>todo: easy, low priority, need to create plan</t>
+  </si>
+  <si>
+    <t>Tests for Merging Train Dialog…there are no coverage for this feature yet…we have lots of test for Save As Is, but not Merge</t>
+  </si>
+  <si>
+    <t>Merge Train Dialogs</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>There are many more scenarios around the "Action Conditions" feature that we need tests for.</t>
   </si>
 </sst>
 </file>
@@ -2592,104 +2610,107 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$33</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43840</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2697,21 +2718,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$C$2:$C$33</c:f>
+              <c:f>'Weekly Progress'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>263</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
@@ -2720,16 +2741,16 @@
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>246</c:v>
@@ -2738,63 +2759,66 @@
                   <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2831,104 +2855,107 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$33</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43840</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2936,15 +2963,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$D$2:$D$33</c:f>
+              <c:f>'Weekly Progress'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35</c:v>
@@ -2959,16 +2986,16 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>38</c:v>
@@ -2977,63 +3004,66 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3805,13 +3835,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3843,8 +3873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F320" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F320" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F321" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F321" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
     <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
@@ -3873,8 +3903,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D34" totalsRowShown="0">
+  <autoFilter ref="A1:D34" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6229C132-74E5-42FB-A81D-37498D4788E1}" name="Scenarios"/>
@@ -4277,11 +4307,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,24 +5490,21 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>600</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -5488,27 +5515,27 @@
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5522,7 +5549,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>516</v>
@@ -5539,7 +5566,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>516</v>
@@ -5556,7 +5583,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>516</v>
@@ -5573,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>516</v>
@@ -5590,13 +5617,13 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -5607,13 +5634,13 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -5624,7 +5651,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>520</v>
@@ -5641,13 +5668,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -5658,7 +5685,7 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>520</v>
@@ -5675,13 +5702,13 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -5692,13 +5719,13 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -5709,13 +5736,13 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -5726,13 +5753,13 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -5743,13 +5770,13 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -5760,10 +5787,10 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5777,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>522</v>
@@ -5794,13 +5821,13 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -5811,13 +5838,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -5828,13 +5855,13 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -5845,10 +5872,10 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5862,13 +5889,13 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -5879,10 +5906,10 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>239</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5896,10 +5923,10 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>440</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5913,7 +5940,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>440</v>
@@ -5930,13 +5957,13 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -5947,13 +5974,13 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -5964,7 +5991,7 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>440</v>
@@ -5981,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>440</v>
@@ -5998,7 +6025,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>440</v>
@@ -6015,13 +6042,13 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -6032,7 +6059,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>440</v>
@@ -6049,7 +6076,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>440</v>
@@ -6066,13 +6093,13 @@
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -6083,10 +6110,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6094,19 +6121,19 @@
         <v>44</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>398</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -6117,13 +6144,13 @@
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -6134,30 +6161,30 @@
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>44</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -6168,13 +6195,13 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -6185,27 +6212,27 @@
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>44</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6219,7 +6246,7 @@
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>223</v>
@@ -6236,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>223</v>
@@ -6253,7 +6280,7 @@
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>223</v>
@@ -6270,13 +6297,13 @@
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -6287,13 +6314,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -6304,27 +6331,27 @@
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>44</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6332,13 +6359,13 @@
         <v>44</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>52</v>
+        <v>540</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>414</v>
@@ -6349,13 +6376,13 @@
         <v>44</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>540</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>536</v>
+        <v>407</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>414</v>
@@ -6372,13 +6399,13 @@
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -6389,7 +6416,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>414</v>
@@ -6406,13 +6433,13 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>541</v>
+        <v>406</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -6423,13 +6450,13 @@
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -6440,47 +6467,47 @@
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>415</v>
+        <v>542</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>543</v>
+        <v>415</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>44</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -6491,30 +6518,30 @@
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>44</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>52</v>
+        <v>539</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>44</v>
       </c>
@@ -6525,13 +6552,13 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>44</v>
       </c>
@@ -6542,7 +6569,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>424</v>
@@ -6559,13 +6586,13 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -6576,13 +6603,13 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -6593,7 +6620,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>424</v>
@@ -6610,7 +6637,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>424</v>
@@ -6627,27 +6654,27 @@
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>44</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,13 +6688,13 @@
         <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -6678,13 +6705,13 @@
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -6695,7 +6722,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>427</v>
@@ -6706,13 +6733,13 @@
         <v>44</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>534</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>427</v>
@@ -6723,13 +6750,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>427</v>
@@ -6746,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>427</v>
@@ -6763,7 +6790,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>427</v>
@@ -6780,7 +6807,7 @@
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>427</v>
@@ -6797,30 +6824,30 @@
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -6831,7 +6858,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>223</v>
@@ -6848,10 +6875,10 @@
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6865,13 +6892,13 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>44</v>
       </c>
@@ -6882,13 +6909,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>44</v>
       </c>
@@ -6899,13 +6926,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>44</v>
       </c>
@@ -6916,7 +6943,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>226</v>
@@ -6933,7 +6960,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>226</v>
@@ -6950,10 +6977,10 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6967,13 +6994,13 @@
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>44</v>
       </c>
@@ -6984,13 +7011,13 @@
         <v>14</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>44</v>
       </c>
@@ -7001,16 +7028,13 @@
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>44</v>
       </c>
@@ -7021,13 +7045,13 @@
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>551</v>
+        <v>45</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>561</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7035,19 +7059,22 @@
         <v>44</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>60</v>
+        <v>551</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>44</v>
       </c>
@@ -7058,13 +7085,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -7075,13 +7102,13 @@
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>44</v>
       </c>
@@ -7092,10 +7119,10 @@
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>484</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7109,13 +7136,13 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>474</v>
+        <v>272</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -7126,13 +7153,13 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>44</v>
       </c>
@@ -7143,7 +7170,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>484</v>
@@ -7160,13 +7187,13 @@
         <v>14</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -7177,13 +7204,13 @@
         <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>44</v>
       </c>
@@ -7194,13 +7221,13 @@
         <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -7208,27 +7235,27 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>44</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>481</v>
+        <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>484</v>
@@ -7245,7 +7272,7 @@
         <v>14</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>484</v>
@@ -7261,45 +7288,45 @@
       <c r="C172" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="8" t="s">
-        <v>482</v>
+      <c r="D172" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>44</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>58</v>
+        <v>481</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>478</v>
+      <c r="D173" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="F173" s="3" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>44</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>479</v>
+        <v>58</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>484</v>
@@ -7310,16 +7337,16 @@
         <v>44</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>58</v>
+        <v>479</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7333,7 +7360,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>470</v>
+        <v>271</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>526</v>
@@ -7350,13 +7377,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>44</v>
       </c>
@@ -7367,7 +7394,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>526</v>
@@ -7384,13 +7411,13 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>44</v>
       </c>
@@ -7401,13 +7428,13 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>44</v>
       </c>
@@ -7418,10 +7445,10 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7435,13 +7462,13 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>44</v>
       </c>
@@ -7452,13 +7479,13 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>44</v>
       </c>
@@ -7469,13 +7496,13 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>44</v>
       </c>
@@ -7486,13 +7513,13 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>44</v>
       </c>
@@ -7503,13 +7530,13 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>44</v>
       </c>
@@ -7520,16 +7547,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>44</v>
       </c>
@@ -7540,16 +7564,16 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>44</v>
       </c>
@@ -7560,7 +7584,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>589</v>
@@ -7569,7 +7593,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>44</v>
       </c>
@@ -7580,7 +7604,7 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>589</v>
@@ -7589,7 +7613,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>44</v>
       </c>
@@ -7600,7 +7624,7 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>589</v>
@@ -7609,7 +7633,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -7620,16 +7644,16 @@
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>44</v>
       </c>
@@ -7640,16 +7664,16 @@
         <v>14</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -7660,13 +7684,16 @@
         <v>14</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>44</v>
       </c>
@@ -7677,10 +7704,10 @@
         <v>14</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7688,16 +7715,16 @@
         <v>44</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>250</v>
+        <v>410</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7711,7 +7738,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>250</v>
@@ -7728,7 +7755,7 @@
         <v>12</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>250</v>
@@ -7742,10 +7769,10 @@
         <v>64</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>250</v>
@@ -7762,13 +7789,13 @@
         <v>14</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>44</v>
       </c>
@@ -7778,11 +7805,11 @@
       <c r="C201" t="s">
         <v>14</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>70</v>
+      <c r="D201" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7796,10 +7823,10 @@
         <v>14</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7813,7 +7840,7 @@
         <v>14</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>239</v>
@@ -7830,10 +7857,10 @@
         <v>14</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7847,10 +7874,10 @@
         <v>14</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7864,13 +7891,13 @@
         <v>14</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>44</v>
       </c>
@@ -7880,14 +7907,14 @@
       <c r="C207" t="s">
         <v>14</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>76</v>
+      <c r="D207" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>44</v>
       </c>
@@ -7898,13 +7925,13 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -7915,16 +7942,13 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>44</v>
       </c>
@@ -7935,11 +7959,14 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="F210" s="3" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -7952,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>448</v>
@@ -7969,7 +7996,7 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>448</v>
@@ -7986,13 +8013,13 @@
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>44</v>
       </c>
@@ -8003,13 +8030,13 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -8020,56 +8047,53 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>44</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E216" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="3" t="s">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>44</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C216" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>44</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>44</v>
       </c>
@@ -8080,7 +8104,7 @@
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>557</v>
@@ -8089,7 +8113,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -8100,7 +8124,7 @@
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>557</v>
@@ -8109,7 +8133,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -8120,30 +8144,33 @@
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>44</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E221" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>44</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C221" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>44</v>
       </c>
@@ -8154,16 +8181,13 @@
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>44</v>
       </c>
@@ -8174,13 +8198,16 @@
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>44</v>
       </c>
@@ -8191,7 +8218,7 @@
         <v>14</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>225</v>
@@ -8208,13 +8235,13 @@
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>44</v>
       </c>
@@ -8225,16 +8252,13 @@
         <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>44</v>
       </c>
@@ -8245,7 +8269,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>559</v>
@@ -8254,7 +8278,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>44</v>
       </c>
@@ -8265,7 +8289,7 @@
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>559</v>
@@ -8274,7 +8298,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -8285,10 +8309,13 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>225</v>
+        <v>559</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8302,10 +8329,10 @@
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8319,13 +8346,13 @@
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>44</v>
       </c>
@@ -8336,16 +8363,13 @@
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -8356,30 +8380,33 @@
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>44</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F234" s="3" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>44</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C234" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8387,19 +8414,19 @@
         <v>44</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>44</v>
       </c>
@@ -8410,30 +8437,30 @@
         <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>15</v>
+        <v>498</v>
       </c>
       <c r="C237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>86</v>
+        <v>499</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -8444,13 +8471,13 @@
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -8461,7 +8488,7 @@
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>371</v>
@@ -8472,19 +8499,19 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -8495,13 +8522,13 @@
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -8512,10 +8539,10 @@
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8529,10 +8556,10 @@
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>507</v>
+        <v>243</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8540,19 +8567,19 @@
         <v>15</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -8563,13 +8590,13 @@
         <v>15</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>287</v>
+        <v>506</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -8580,47 +8607,47 @@
         <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F246" s="3" t="s">
+    </row>
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C247" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>563</v>
+        <v>22</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8628,16 +8655,16 @@
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>61</v>
+        <v>563</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8645,16 +8672,16 @@
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8674,24 +8701,21 @@
         <v>565</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="B252" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" t="s">
         <v>8</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>567</v>
+      <c r="D252" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -8699,22 +8723,22 @@
         <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -8722,39 +8746,39 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>570</v>
+        <v>23</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>572</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -8762,10 +8786,10 @@
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>572</v>
@@ -8779,50 +8803,53 @@
         <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>257</v>
+        <v>576</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>583</v>
+        <v>257</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8836,13 +8863,13 @@
         <v>258</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -8853,50 +8880,47 @@
         <v>258</v>
       </c>
       <c r="D262" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C263" t="s">
+        <v>258</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E263" s="3" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>260</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C263" t="s">
-        <v>262</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8904,19 +8928,19 @@
         <v>44</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>334</v>
+        <v>587</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>304</v>
+        <v>588</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8930,11 +8954,14 @@
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="F266" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -8947,7 +8974,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>334</v>
@@ -8964,7 +8991,7 @@
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>334</v>
@@ -8981,7 +9008,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>334</v>
@@ -8998,7 +9025,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>334</v>
@@ -9015,7 +9042,7 @@
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>334</v>
@@ -9032,7 +9059,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>334</v>
@@ -9049,7 +9076,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>334</v>
@@ -9066,7 +9093,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>334</v>
@@ -9083,13 +9110,13 @@
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>44</v>
       </c>
@@ -9100,13 +9127,13 @@
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>44</v>
       </c>
@@ -9117,13 +9144,10 @@
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9137,7 +9161,7 @@
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>324</v>
@@ -9157,10 +9181,10 @@
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>302</v>
@@ -9177,7 +9201,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>325</v>
@@ -9197,10 +9221,10 @@
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>302</v>
@@ -9217,7 +9241,7 @@
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>332</v>
@@ -9226,7 +9250,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>44</v>
       </c>
@@ -9237,10 +9261,10 @@
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>302</v>
@@ -9257,7 +9281,7 @@
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>333</v>
@@ -9277,7 +9301,7 @@
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>333</v>
@@ -9297,7 +9321,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>333</v>
@@ -9306,7 +9330,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -9317,27 +9341,30 @@
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>594</v>
+        <v>331</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>44</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>341</v>
+        <v>593</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9351,7 +9378,7 @@
         <v>14</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>345</v>
@@ -9368,7 +9395,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>345</v>
@@ -9385,7 +9412,7 @@
         <v>14</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>345</v>
@@ -9402,13 +9429,13 @@
         <v>14</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>44</v>
       </c>
@@ -9419,14 +9446,11 @@
         <v>14</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F293" s="3" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -9439,7 +9463,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>314</v>
@@ -9448,7 +9472,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -9459,7 +9483,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>314</v>
@@ -9479,7 +9503,7 @@
         <v>14</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>314</v>
@@ -9499,7 +9523,7 @@
         <v>14</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>314</v>
@@ -9513,61 +9537,98 @@
         <v>44</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>44</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C298" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="3" t="s">
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>44</v>
-      </c>
-      <c r="B299" s="3" t="s">
+    <row r="300" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>44</v>
+      </c>
+      <c r="B300" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C299" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" s="3" t="s">
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E300" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F299" s="3" t="s">
+      <c r="F300" s="3" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>591</v>
-      </c>
-      <c r="D300" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="D301" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="E301" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D301" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>561</v>
+      <c r="D302" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>599</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C303" t="s">
+        <v>594</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -9648,7 +9709,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10129,10 +10190,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,44 +10220,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C30" si="0">SUM(B2,-D2)</f>
-        <v>263</v>
+        <f t="shared" ref="C2:C31" si="0">SUM(B2,-D2)</f>
+        <v>264</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="B3">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="B4">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -10204,14 +10265,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="B5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -10219,7 +10280,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="B6">
         <v>290</v>
@@ -10234,7 +10295,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>43798</v>
+        <v>43812</v>
       </c>
       <c r="B7">
         <v>290</v>
@@ -10249,67 +10310,67 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="B8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="B9">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="B10">
         <v>284</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="B11">
         <v>284</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="B12">
         <v>284</v>
@@ -10324,7 +10385,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B13">
         <v>284</v>
@@ -10339,29 +10400,29 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="B14">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="B15">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D15">
         <v>41</v>
@@ -10369,104 +10430,104 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="B16">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="B17">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="B18">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="B19">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="B20">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="B21">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="B22">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D22">
         <v>41</v>
@@ -10474,44 +10535,44 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>43665</v>
+        <v>43693</v>
       </c>
       <c r="B23">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="B24">
         <v>199</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="B25">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D25">
         <v>54</v>
@@ -10519,121 +10580,136 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="B26">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D26">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>43638</v>
+        <v>43644</v>
       </c>
       <c r="B27">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D27">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>43630</v>
+        <v>43638</v>
       </c>
       <c r="B28">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D28">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="B29">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="B30">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D30">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B31">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C31">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D31">
-        <f>B31-C31</f>
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="B32">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <f>B32-C32</f>
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="B33">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C33">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <f>B33-C33</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>43595</v>
+      </c>
+      <c r="B34">
+        <v>172</v>
+      </c>
+      <c r="C34">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <f>B34-C34</f>
         <v>96</v>
       </c>
     </row>

--- a/packages/ui/cypress/TestGrid.xlsx
+++ b/packages/ui/cypress/TestGrid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\ConversationLearner\packages\ui\cypress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660D2F9B-B6D7-4A3B-A76C-93DDEAF9E436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5144AE-DB84-4F8F-83DE-469C551EF54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9E372DEC-327E-4746-A167-3846B8704516}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="601">
   <si>
     <t>Page</t>
   </si>
@@ -2285,12 +2285,42 @@
     <t>I intended to add these scenarios to one of the EntityLabeling test suites but I ran into too many bugs to be able to complete them. I believe it was Regression\EntityLabeling\NewPhraseUsed2xInconsistentlySameTD.spec.js that I wanted to add it to.
 The thing that makes these scenarios "medium" difficulty to add rather than easy, because the helper functions are already in place, is getting the scenario right. There are many similar scenarios that have only subtle differences, but manual testing has proven these subtleties and the bugs produced do make a difference.</t>
   </si>
+  <si>
+    <t>Verify font/css elements - Very little testing is done to verify fonts used to distinguish states of elements.</t>
+  </si>
+  <si>
+    <t>We only have a few branching tests. There must be more scenarios that we can cover around this feature. Search for "BranchChatTurn" to see what is currently covered.</t>
+  </si>
+  <si>
+    <t>API callback throws an exception - Verify only one chat message shows up (as opposed to the 2 that show up with bug 2441)</t>
+  </si>
+  <si>
+    <t>Train Dialog, Model Page</t>
+  </si>
+  <si>
+    <t>todo: difficult, medium priority, need to create plan</t>
+  </si>
+  <si>
+    <t>todo: easy, low priority, need to create plan</t>
+  </si>
+  <si>
+    <t>Tests for Merging Train Dialog…there are no coverage for this feature yet…we have lots of test for Save As Is, but not Merge</t>
+  </si>
+  <si>
+    <t>Merge Train Dialogs</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>There are many more scenarios around the "Action Conditions" feature that we need tests for.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2351,14 +2381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,11 +2420,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2434,15 +2455,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2461,19 +2496,6 @@
           <color theme="4"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2588,101 +2610,107 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$32</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2690,101 +2718,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$C$2:$C$32</c:f>
+              <c:f>'Weekly Progress'!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
@@ -2821,101 +2855,107 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'Weekly Progress'!$A$2:$A$32</c:f>
+              <c:f>'Weekly Progress'!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>43847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43840</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>43833</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>43826</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>43819</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>43812</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43798</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43791</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43784</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>43777</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>43770</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>43763</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>43756</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>43749</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>43742</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>43735</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>43728</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>43721</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>43714</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>43707</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>43700</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>43693</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>43665</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>43658</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>43651</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>43644</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>43638</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>43630</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>43623</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>43616</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>43609</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>43602</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>43595</c:v>
                 </c:pt>
               </c:numCache>
@@ -2923,15 +2963,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Weekly Progress'!$D$2:$D$32</c:f>
+              <c:f>'Weekly Progress'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35</c:v>
@@ -2943,81 +2983,87 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
@@ -3789,13 +3835,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3827,22 +3873,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F319" totalsRowShown="0" headerRowBorderDxfId="4" headerRowCellStyle="Heading 1">
-  <autoFilter ref="A1:F319" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D8D34B5-BAEA-4C8B-8DF5-C01D86E62957}" name="Table1" displayName="Table1" ref="A1:F321" totalsRowShown="0" headerRowBorderDxfId="7" headerRowCellStyle="Heading 1">
+  <autoFilter ref="A1:F321" xr:uid="{B5F7D8EE-9D8F-47A2-A197-9D8037549501}"/>
   <tableColumns count="6">
     <tableColumn id="4" xr3:uid="{7905D971-B220-4A95-B9FD-7D1376A44B1E}" name="Area"/>
-    <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{52A5D5B9-9F85-46B1-A753-74A933A948A7}" name="Feature" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{B0123158-48C7-47B5-8788-3102666127B5}" name="Page"/>
-    <tableColumn id="6" xr3:uid="{9E19D589-D83D-4717-9F5D-BD2AD9F935E9}" name="Test Validations" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{BC84EEBB-5D19-4499-B7FE-E62F4B6382CE}" name="Test Name" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{100F57C4-33FA-4044-AB33-66A70FCA33C1}" name="Additional Notes" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{9E19D589-D83D-4717-9F5D-BD2AD9F935E9}" name="Test Validations" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{BC84EEBB-5D19-4499-B7FE-E62F4B6382CE}" name="Test Name" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{100F57C4-33FA-4044-AB33-66A70FCA33C1}" name="Additional Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7660BDF-5A1B-49D9-81EE-59363A3E189C}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E7660BDF-5A1B-49D9-81EE-59363A3E189C}" name="Table5" displayName="Table5" ref="A1:F8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Heading 1">
   <autoFilter ref="A1:F8" xr:uid="{ABDE53FE-36A6-48A7-8159-AB5687FE6CE2}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{12C7EC41-7AEA-4B95-B723-8858111BAC3A}" name="Area"/>
@@ -3857,10 +3903,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D32" totalsRowShown="0">
-  <autoFilter ref="A1:D32" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2150B3DF-BB2E-4B60-8D55-F742950E367A}" name="Table15" displayName="Table15" ref="A1:D34" totalsRowShown="0">
+  <autoFilter ref="A1:D34" xr:uid="{186D535B-B5B9-4A39-B07E-81AB77ACC099}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B5585221-FAE2-4C1B-938F-A848BA5771FE}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6229C132-74E5-42FB-A81D-37498D4788E1}" name="Scenarios"/>
     <tableColumn id="3" xr3:uid="{97683F47-20D1-4334-8379-20CB66181DC2}" name="Coverage"/>
     <tableColumn id="4" xr3:uid="{0609BF2F-BE77-41CE-A44E-FF4395A9754B}" name="Remaining">
@@ -4261,11 +4307,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC66FE2-0B4E-44F5-88F5-E30061E2A753}">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5444,24 +5490,21 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>600</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -5472,27 +5515,27 @@
         <v>14</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>292</v>
+        <v>510</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5506,7 +5549,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>516</v>
@@ -5523,7 +5566,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>516</v>
@@ -5540,7 +5583,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>516</v>
@@ -5557,7 +5600,7 @@
         <v>14</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>516</v>
@@ -5574,13 +5617,13 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -5591,13 +5634,13 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -5608,7 +5651,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>520</v>
@@ -5625,13 +5668,13 @@
         <v>14</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -5642,7 +5685,7 @@
         <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>520</v>
@@ -5659,13 +5702,13 @@
         <v>14</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -5676,13 +5719,13 @@
         <v>14</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -5693,13 +5736,13 @@
         <v>14</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -5710,13 +5753,13 @@
         <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -5727,13 +5770,13 @@
         <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -5744,10 +5787,10 @@
         <v>14</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,7 +5804,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>522</v>
@@ -5778,13 +5821,13 @@
         <v>14</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -5795,13 +5838,13 @@
         <v>14</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -5812,13 +5855,13 @@
         <v>14</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -5829,10 +5872,10 @@
         <v>14</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -5846,13 +5889,13 @@
         <v>14</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -5863,10 +5906,10 @@
         <v>14</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>239</v>
+        <v>523</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5880,10 +5923,10 @@
         <v>14</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>440</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5897,7 +5940,7 @@
         <v>14</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>440</v>
@@ -5914,13 +5957,13 @@
         <v>14</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -5931,13 +5974,13 @@
         <v>14</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -5948,7 +5991,7 @@
         <v>14</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>440</v>
@@ -5965,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>440</v>
@@ -5982,7 +6025,7 @@
         <v>14</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>440</v>
@@ -5999,13 +6042,13 @@
         <v>14</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -6016,7 +6059,7 @@
         <v>14</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>440</v>
@@ -6033,7 +6076,7 @@
         <v>14</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>440</v>
@@ -6050,13 +6093,13 @@
         <v>14</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -6067,10 +6110,10 @@
         <v>14</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6078,19 +6121,19 @@
         <v>44</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>398</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -6101,13 +6144,13 @@
         <v>14</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -6118,30 +6161,30 @@
         <v>14</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>44</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -6152,13 +6195,13 @@
         <v>14</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -6169,27 +6212,27 @@
         <v>14</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>44</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6203,7 +6246,7 @@
         <v>14</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>223</v>
@@ -6220,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>223</v>
@@ -6237,7 +6280,7 @@
         <v>14</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>223</v>
@@ -6254,13 +6297,13 @@
         <v>14</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -6271,13 +6314,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -6288,27 +6331,27 @@
         <v>14</v>
       </c>
       <c r="D116" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>44</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6316,13 +6359,13 @@
         <v>44</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>52</v>
+        <v>540</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>407</v>
+        <v>535</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>414</v>
@@ -6333,13 +6376,13 @@
         <v>44</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>540</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>536</v>
+        <v>407</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>414</v>
@@ -6356,13 +6399,13 @@
         <v>14</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -6373,7 +6416,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>414</v>
@@ -6390,13 +6433,13 @@
         <v>14</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>541</v>
+        <v>406</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>44</v>
       </c>
@@ -6407,13 +6450,13 @@
         <v>14</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>44</v>
       </c>
@@ -6424,47 +6467,47 @@
         <v>14</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>415</v>
+        <v>542</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>543</v>
+        <v>415</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>44</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C126" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>44</v>
       </c>
@@ -6475,30 +6518,30 @@
         <v>14</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>44</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>52</v>
+        <v>539</v>
       </c>
       <c r="C128" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>44</v>
       </c>
@@ -6509,13 +6552,13 @@
         <v>14</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>44</v>
       </c>
@@ -6526,7 +6569,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>424</v>
@@ -6543,13 +6586,13 @@
         <v>14</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -6560,13 +6603,13 @@
         <v>14</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>44</v>
       </c>
@@ -6577,7 +6620,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>424</v>
@@ -6594,7 +6637,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>424</v>
@@ -6611,27 +6654,27 @@
         <v>14</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>44</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6645,13 +6688,13 @@
         <v>14</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -6662,13 +6705,13 @@
         <v>14</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>44</v>
       </c>
@@ -6679,7 +6722,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>427</v>
@@ -6690,13 +6733,13 @@
         <v>44</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>534</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>427</v>
@@ -6707,13 +6750,13 @@
         <v>44</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>530</v>
+        <v>428</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>427</v>
@@ -6730,7 +6773,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>416</v>
+        <v>530</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>427</v>
@@ -6747,7 +6790,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>427</v>
@@ -6764,7 +6807,7 @@
         <v>14</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>427</v>
@@ -6781,30 +6824,30 @@
         <v>14</v>
       </c>
       <c r="D145" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>44</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>44</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>44</v>
       </c>
@@ -6815,7 +6858,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>223</v>
@@ -6832,10 +6875,10 @@
         <v>14</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -6849,13 +6892,13 @@
         <v>14</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>44</v>
       </c>
@@ -6866,13 +6909,13 @@
         <v>14</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>44</v>
       </c>
@@ -6883,13 +6926,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>44</v>
       </c>
@@ -6900,7 +6943,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>226</v>
@@ -6917,7 +6960,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>226</v>
@@ -6934,10 +6977,10 @@
         <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,13 +6994,13 @@
         <v>14</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>44</v>
       </c>
@@ -6968,13 +7011,13 @@
         <v>14</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>44</v>
       </c>
@@ -6985,16 +7028,13 @@
         <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>44</v>
       </c>
@@ -7005,13 +7045,13 @@
         <v>14</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>551</v>
+        <v>45</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>561</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7019,19 +7059,22 @@
         <v>44</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C159" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>60</v>
+        <v>551</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>44</v>
       </c>
@@ -7042,13 +7085,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -7059,13 +7102,13 @@
         <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>44</v>
       </c>
@@ -7076,10 +7119,10 @@
         <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>484</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7093,13 +7136,13 @@
         <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>474</v>
+        <v>272</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>44</v>
       </c>
@@ -7110,13 +7153,13 @@
         <v>14</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>44</v>
       </c>
@@ -7127,7 +7170,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>484</v>
@@ -7144,13 +7187,13 @@
         <v>14</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -7161,13 +7204,13 @@
         <v>14</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>44</v>
       </c>
@@ -7178,13 +7221,13 @@
         <v>14</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>44</v>
       </c>
@@ -7192,27 +7235,27 @@
         <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>44</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>481</v>
+        <v>58</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>484</v>
@@ -7229,7 +7272,7 @@
         <v>14</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>484</v>
@@ -7245,45 +7288,45 @@
       <c r="C172" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="8" t="s">
-        <v>482</v>
+      <c r="D172" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>44</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>58</v>
+        <v>481</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>478</v>
+      <c r="D173" s="8" t="s">
+        <v>482</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>484</v>
       </c>
+      <c r="F173" s="3" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>44</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>479</v>
+        <v>58</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>484</v>
@@ -7294,16 +7337,16 @@
         <v>44</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>58</v>
+        <v>479</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>526</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7317,7 +7360,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>470</v>
+        <v>271</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>526</v>
@@ -7334,13 +7377,13 @@
         <v>14</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>44</v>
       </c>
@@ -7351,7 +7394,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>526</v>
@@ -7368,13 +7411,13 @@
         <v>14</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>44</v>
       </c>
@@ -7385,13 +7428,13 @@
         <v>14</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>44</v>
       </c>
@@ -7402,10 +7445,10 @@
         <v>14</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7419,13 +7462,13 @@
         <v>14</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>44</v>
       </c>
@@ -7436,13 +7479,13 @@
         <v>14</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>44</v>
       </c>
@@ -7453,13 +7496,13 @@
         <v>14</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>44</v>
       </c>
@@ -7470,13 +7513,13 @@
         <v>14</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>44</v>
       </c>
@@ -7487,13 +7530,13 @@
         <v>14</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>44</v>
       </c>
@@ -7504,16 +7547,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>44</v>
       </c>
@@ -7524,16 +7564,16 @@
         <v>14</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>44</v>
       </c>
@@ -7544,7 +7584,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>589</v>
@@ -7553,7 +7593,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>44</v>
       </c>
@@ -7564,7 +7604,7 @@
         <v>14</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>589</v>
@@ -7573,7 +7613,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>44</v>
       </c>
@@ -7584,7 +7624,7 @@
         <v>14</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>589</v>
@@ -7593,7 +7633,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -7604,16 +7644,16 @@
         <v>14</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>44</v>
       </c>
@@ -7624,16 +7664,16 @@
         <v>14</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>589</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -7644,13 +7684,16 @@
         <v>14</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>44</v>
       </c>
@@ -7661,10 +7704,10 @@
         <v>14</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7672,16 +7715,16 @@
         <v>44</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C196" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>250</v>
+        <v>410</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7695,7 +7738,7 @@
         <v>12</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>250</v>
@@ -7712,7 +7755,7 @@
         <v>12</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>250</v>
@@ -7726,10 +7769,10 @@
         <v>64</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>250</v>
@@ -7746,13 +7789,13 @@
         <v>14</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>44</v>
       </c>
@@ -7762,11 +7805,11 @@
       <c r="C201" t="s">
         <v>14</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>70</v>
+      <c r="D201" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7780,10 +7823,10 @@
         <v>14</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7797,7 +7840,7 @@
         <v>14</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>239</v>
@@ -7814,10 +7857,10 @@
         <v>14</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7831,10 +7874,10 @@
         <v>14</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7848,13 +7891,13 @@
         <v>14</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>44</v>
       </c>
@@ -7864,14 +7907,14 @@
       <c r="C207" t="s">
         <v>14</v>
       </c>
-      <c r="D207" s="3" t="s">
-        <v>76</v>
+      <c r="D207" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>44</v>
       </c>
@@ -7882,13 +7925,13 @@
         <v>14</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -7899,16 +7942,13 @@
         <v>14</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>44</v>
       </c>
@@ -7919,11 +7959,14 @@
         <v>14</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="F210" s="3" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -7936,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>448</v>
@@ -7953,7 +7996,7 @@
         <v>14</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>448</v>
@@ -7970,13 +8013,13 @@
         <v>14</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>44</v>
       </c>
@@ -7987,13 +8030,13 @@
         <v>14</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -8004,56 +8047,53 @@
         <v>14</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>44</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E216" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="F215" s="3" t="s">
+      <c r="F216" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="3" t="s">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>44</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C216" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="3" t="s">
+      <c r="C217" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E217" s="3" t="s">
         <v>566</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>44</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C217" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>44</v>
       </c>
@@ -8064,7 +8104,7 @@
         <v>14</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>557</v>
@@ -8073,7 +8113,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>44</v>
       </c>
@@ -8084,7 +8124,7 @@
         <v>14</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>557</v>
@@ -8093,7 +8133,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>44</v>
       </c>
@@ -8104,30 +8144,33 @@
         <v>14</v>
       </c>
       <c r="D220" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>44</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E221" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>44</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C221" t="s">
-        <v>14</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>44</v>
       </c>
@@ -8138,16 +8181,13 @@
         <v>14</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>44</v>
       </c>
@@ -8158,13 +8198,16 @@
         <v>14</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>44</v>
       </c>
@@ -8175,7 +8218,7 @@
         <v>14</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>225</v>
@@ -8192,13 +8235,13 @@
         <v>14</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>44</v>
       </c>
@@ -8209,16 +8252,13 @@
         <v>14</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>44</v>
       </c>
@@ -8229,7 +8269,7 @@
         <v>14</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>559</v>
@@ -8238,7 +8278,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>44</v>
       </c>
@@ -8249,7 +8289,7 @@
         <v>14</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>559</v>
@@ -8258,7 +8298,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -8269,10 +8309,13 @@
         <v>14</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>225</v>
+        <v>559</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8286,10 +8329,10 @@
         <v>14</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8303,13 +8346,13 @@
         <v>14</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>44</v>
       </c>
@@ -8320,16 +8363,13 @@
         <v>14</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -8340,30 +8380,33 @@
         <v>14</v>
       </c>
       <c r="D233" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>44</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E234" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F233" s="3" t="s">
+      <c r="F234" s="3" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>44</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C234" t="s">
-        <v>14</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8371,19 +8414,19 @@
         <v>44</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>44</v>
       </c>
@@ -8394,30 +8437,30 @@
         <v>14</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>15</v>
+        <v>498</v>
       </c>
       <c r="C237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>86</v>
+        <v>499</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -8428,13 +8471,13 @@
         <v>15</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -8445,7 +8488,7 @@
         <v>15</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>371</v>
@@ -8456,19 +8499,19 @@
         <v>15</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>366</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
         <v>15</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -8479,13 +8522,13 @@
         <v>15</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -8496,10 +8539,10 @@
         <v>15</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8513,10 +8556,10 @@
         <v>15</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>507</v>
+        <v>243</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8524,19 +8567,19 @@
         <v>15</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -8547,13 +8590,13 @@
         <v>15</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>287</v>
+        <v>506</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -8564,47 +8607,47 @@
         <v>15</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F246" s="3" t="s">
+    </row>
+    <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>3</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C247" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>563</v>
+        <v>22</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>564</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8612,16 +8655,16 @@
         <v>3</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>61</v>
+        <v>563</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8629,16 +8672,16 @@
         <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>565</v>
+        <v>518</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -8658,24 +8701,21 @@
         <v>565</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="252" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="B252" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C252" t="s">
         <v>8</v>
       </c>
-      <c r="D253" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>567</v>
+      <c r="D252" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -8683,22 +8723,22 @@
         <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>3</v>
       </c>
@@ -8706,39 +8746,39 @@
         <v>4</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>570</v>
+        <v>23</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>572</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -8746,10 +8786,10 @@
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>572</v>
@@ -8763,50 +8803,53 @@
         <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C258" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="C259" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>257</v>
+        <v>576</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C260" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>583</v>
+        <v>257</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8820,13 +8863,13 @@
         <v>258</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>259</v>
       </c>
@@ -8837,50 +8880,47 @@
         <v>258</v>
       </c>
       <c r="D262" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C263" t="s">
+        <v>258</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E263" s="3" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>260</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C263" t="s">
-        <v>262</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>260</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C264" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8888,19 +8928,19 @@
         <v>44</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>334</v>
+        <v>587</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>304</v>
+        <v>588</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -8914,11 +8954,14 @@
         <v>14</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="F266" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -8931,7 +8974,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>334</v>
@@ -8948,7 +8991,7 @@
         <v>14</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>334</v>
@@ -8965,7 +9008,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>334</v>
@@ -8982,7 +9025,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>334</v>
@@ -8999,7 +9042,7 @@
         <v>14</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>334</v>
@@ -9016,7 +9059,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>334</v>
@@ -9033,7 +9076,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>334</v>
@@ -9050,7 +9093,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>334</v>
@@ -9067,13 +9110,13 @@
         <v>14</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>44</v>
       </c>
@@ -9084,13 +9127,13 @@
         <v>14</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>44</v>
       </c>
@@ -9101,13 +9144,10 @@
         <v>14</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -9121,7 +9161,7 @@
         <v>14</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>324</v>
@@ -9141,10 +9181,10 @@
         <v>14</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>302</v>
@@ -9161,7 +9201,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>325</v>
@@ -9181,10 +9221,10 @@
         <v>14</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>302</v>
@@ -9201,7 +9241,7 @@
         <v>14</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>332</v>
@@ -9210,7 +9250,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>44</v>
       </c>
@@ -9221,10 +9261,10 @@
         <v>14</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>302</v>
@@ -9241,7 +9281,7 @@
         <v>14</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E284" s="3" t="s">
         <v>333</v>
@@ -9261,7 +9301,7 @@
         <v>14</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>333</v>
@@ -9281,7 +9321,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>333</v>
@@ -9290,38 +9330,41 @@
         <v>302</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>44</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>44</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>342</v>
+        <v>593</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9335,7 +9378,7 @@
         <v>14</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>345</v>
@@ -9352,7 +9395,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>345</v>
@@ -9369,13 +9412,13 @@
         <v>14</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>44</v>
       </c>
@@ -9386,16 +9429,13 @@
         <v>14</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>44</v>
       </c>
@@ -9406,16 +9446,13 @@
         <v>14</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F293" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>44</v>
       </c>
@@ -9426,7 +9463,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E294" s="3" t="s">
         <v>314</v>
@@ -9435,7 +9472,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -9446,7 +9483,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>314</v>
@@ -9466,7 +9503,7 @@
         <v>14</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>314</v>
@@ -9480,40 +9517,119 @@
         <v>44</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C297" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>44</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C298" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>44</v>
+      </c>
+      <c r="B299" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C297" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" s="3" t="s">
+      <c r="C299" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>44</v>
-      </c>
-      <c r="B298" s="3" t="s">
+    <row r="300" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>44</v>
+      </c>
+      <c r="B300" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C298" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="3" t="s">
+      <c r="C300" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E300" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F298" s="3" t="s">
+      <c r="F300" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D299" s="15"/>
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="D301" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>599</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D302" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>599</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C303" t="s">
+        <v>594</v>
+      </c>
+      <c r="D303" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>595</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9593,7 +9709,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10074,10 +10190,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA4FAC-EB22-4F76-B22F-D4B2A8D49793}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10104,44 +10220,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>43833</v>
+        <v>43847</v>
       </c>
       <c r="B2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C29" si="0">SUM(B2,-D2)</f>
-        <v>263</v>
+        <f t="shared" ref="C2:C31" si="0">SUM(B2,-D2)</f>
+        <v>264</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>43826</v>
+        <v>43840</v>
       </c>
       <c r="B3">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>43819</v>
+        <v>43833</v>
       </c>
       <c r="B4">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -10149,14 +10265,14 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>43812</v>
+        <v>43826</v>
       </c>
       <c r="B5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D5">
         <v>35</v>
@@ -10164,7 +10280,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>43798</v>
+        <v>43819</v>
       </c>
       <c r="B6">
         <v>290</v>
@@ -10179,82 +10295,82 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>43791</v>
+        <v>43812</v>
       </c>
       <c r="B7">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>43784</v>
+        <v>43798</v>
       </c>
       <c r="B8">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
-        <v>43777</v>
+        <v>43791</v>
       </c>
       <c r="B9">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>43770</v>
+        <v>43784</v>
       </c>
       <c r="B10">
         <v>284</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>43763</v>
+        <v>43777</v>
       </c>
       <c r="B11">
         <v>284</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>43756</v>
+        <v>43770</v>
       </c>
       <c r="B12">
         <v>284</v>
@@ -10269,119 +10385,119 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>43749</v>
+        <v>43763</v>
       </c>
       <c r="B13">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>43742</v>
+        <v>43756</v>
       </c>
       <c r="B14">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>43735</v>
+        <v>43749</v>
       </c>
       <c r="B15">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>43728</v>
+        <v>43742</v>
       </c>
       <c r="B16">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>43721</v>
+        <v>43735</v>
       </c>
       <c r="B17">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
-        <v>43714</v>
+        <v>43728</v>
       </c>
       <c r="B18">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
-        <v>43707</v>
+        <v>43721</v>
       </c>
       <c r="B19">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
-        <v>43700</v>
+        <v>43714</v>
       </c>
       <c r="B20">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="D20">
         <v>41</v>
@@ -10389,181 +10505,211 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
-        <v>43693</v>
+        <v>43707</v>
       </c>
       <c r="B21">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
-        <v>43665</v>
+        <v>43700</v>
       </c>
       <c r="B22">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>43658</v>
+        <v>43693</v>
       </c>
       <c r="B23">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
-        <v>43651</v>
+        <v>43665</v>
       </c>
       <c r="B24">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
-        <v>43644</v>
+        <v>43658</v>
       </c>
       <c r="B25">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
-        <v>43638</v>
+        <v>43651</v>
       </c>
       <c r="B26">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
-        <v>43630</v>
+        <v>43644</v>
       </c>
       <c r="B27">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D27">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
-        <v>43623</v>
+        <v>43638</v>
       </c>
       <c r="B28">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D28">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
-        <v>43616</v>
+        <v>43630</v>
       </c>
       <c r="B29">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
-        <v>43609</v>
+        <v>43623</v>
       </c>
       <c r="B30">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C30">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>102</v>
       </c>
       <c r="D30">
-        <f>B30-C30</f>
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
-        <v>43602</v>
+        <v>43616</v>
       </c>
       <c r="B31">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C31">
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D31">
-        <f>B31-C31</f>
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>43595</v>
+        <v>43609</v>
       </c>
       <c r="B32">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C32">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <f>B32-C32</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>43602</v>
+      </c>
+      <c r="B33">
+        <v>183</v>
+      </c>
+      <c r="C33">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <f>B33-C33</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>43595</v>
+      </c>
+      <c r="B34">
+        <v>172</v>
+      </c>
+      <c r="C34">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <f>B34-C34</f>
         <v>96</v>
       </c>
     </row>
